--- a/model_lca/Inventory_mapping.xlsx
+++ b/model_lca/Inventory_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Component wise inventories" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I92" authorId="0" shapeId="0">
+    <comment ref="I93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="307">
   <si>
     <t xml:space="preserve">Adhesive mortar </t>
   </si>
@@ -883,15 +883,9 @@
     <t>civil engineering concrete (without reinforcement)</t>
   </si>
   <si>
-    <t xml:space="preserve">20-100 </t>
-  </si>
-  <si>
     <t>foam glass gravel</t>
   </si>
   <si>
-    <t xml:space="preserve">125-150 </t>
-  </si>
-  <si>
     <t>remarks</t>
   </si>
   <si>
@@ -904,9 +898,6 @@
     <t>Solid wood spruce / fir / larch, air dried, planed</t>
   </si>
   <si>
-    <t>Polyethylene (PE) vapor barrier</t>
-  </si>
-  <si>
     <t>Glued laminated timber, UF bonded, dry area</t>
   </si>
   <si>
@@ -964,9 +955,6 @@
     <t>clay bricks</t>
   </si>
   <si>
-    <t xml:space="preserve">30-35 </t>
-  </si>
-  <si>
     <t xml:space="preserve">100-165 </t>
   </si>
   <si>
@@ -1109,13 +1097,64 @@
   </si>
   <si>
     <t>lorry</t>
+  </si>
+  <si>
+    <t>cement plaster</t>
+  </si>
+  <si>
+    <t>Light plaster mineral</t>
+  </si>
+  <si>
+    <t>clay plaster</t>
+  </si>
+  <si>
+    <t>Natural stone plates</t>
+  </si>
+  <si>
+    <t>Ground natural stone slab, 15 mm</t>
+  </si>
+  <si>
+    <t>Adapted from KBOB values per m2</t>
+  </si>
+  <si>
+    <t>Non-woven filter (PE) and drainage layer</t>
+  </si>
+  <si>
+    <t>gypsum fiber board</t>
+  </si>
+  <si>
+    <t>OSB panel, PF bonded, wet area</t>
+  </si>
+  <si>
+    <t>cement stone</t>
+  </si>
+  <si>
+    <t>Sealed rubber granules, 7.5 mm</t>
+  </si>
+  <si>
+    <t>Wood wool lightweight board, cement-bound</t>
+  </si>
+  <si>
+    <t>Precast concrete part, normal concrete, ex works</t>
+  </si>
+  <si>
+    <t>Plastic/PVC window frame</t>
+  </si>
+  <si>
+    <t>USED ECOINVENT</t>
+  </si>
+  <si>
+    <t>'plywood production' (kilogram, RER, None)</t>
+  </si>
+  <si>
+    <t>USED Ecoinvent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,6 +1204,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial-BoldMT"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1180,7 +1228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1314,12 +1362,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF949599"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF949599"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF949599"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF949599"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1383,6 +1455,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1401,7 +1482,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1683,14 +1763,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U200"/>
+  <dimension ref="A1:U203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K200" sqref="K200"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" style="34" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1706,7 +1786,7 @@
     <col min="12" max="12" width="34.7109375" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="34" t="s">
         <v>214</v>
       </c>
@@ -1741,12 +1821,15 @@
         <v>212</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="34" t="s">
         <v>112</v>
+      </c>
+      <c r="B2" s="48">
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>197</v>
@@ -1765,7 +1848,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>116</v>
       </c>
@@ -1791,7 +1874,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1817,7 +1900,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1843,11 +1926,13 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="48">
+        <v>60</v>
+      </c>
       <c r="C6" s="24"/>
       <c r="E6" s="3"/>
       <c r="H6" t="s">
@@ -1867,13 +1952,15 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:15">
+      <c r="A7" s="52"/>
+      <c r="B7" s="48">
+        <v>60</v>
+      </c>
       <c r="C7" s="24"/>
       <c r="E7" s="3"/>
       <c r="H7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I7" s="3">
         <v>60</v>
@@ -1889,12 +1976,15 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
+      <c r="B8" s="48">
+        <v>60</v>
+      </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I8" s="3">
         <v>1670</v>
@@ -1910,7 +2000,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>133</v>
       </c>
@@ -1925,15 +2015,17 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="48">
+        <v>60</v>
+      </c>
       <c r="C10" s="24"/>
       <c r="E10" s="3"/>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I10" s="3">
         <v>2000</v>
@@ -1949,35 +2041,51 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="48">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="23">
+        <v>2.3E-2</v>
+      </c>
       <c r="L11" s="31"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="34" t="s">
         <v>2</v>
       </c>
+      <c r="B12" s="48">
+        <v>60</v>
+      </c>
       <c r="H12" s="38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I12" s="39">
         <v>0.25</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K12" s="40">
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="30">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1989,7 +2097,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="H13" s="38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I13" s="39">
         <v>1000</v>
@@ -2001,19 +2109,47 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>30</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="39">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="41">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" s="39">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="41">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30">
       <c r="A16" s="4" t="s">
         <v>85</v>
       </c>
@@ -2022,15 +2158,17 @@
       <c r="E16" s="3"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="48">
+        <v>60</v>
+      </c>
       <c r="C17" s="24"/>
       <c r="E17" s="3"/>
       <c r="H17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I17" s="1">
         <v>900</v>
@@ -2042,12 +2180,15 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="34" t="s">
         <v>3</v>
       </c>
+      <c r="B18" s="48">
+        <v>60</v>
+      </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I18" s="1">
         <v>2300</v>
@@ -2059,18 +2200,20 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="48">
+        <v>60</v>
+      </c>
       <c r="C19" s="24"/>
       <c r="E19" s="3"/>
       <c r="H19" t="s">
         <v>202</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J19" t="s">
         <v>171</v>
@@ -2079,23 +2222,36 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:11" ht="30" customHeight="1">
+      <c r="A20" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="48">
+        <v>60</v>
+      </c>
       <c r="C20" s="24"/>
       <c r="E20" s="3"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="H20" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="24">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="52"/>
       <c r="B21" s="3"/>
       <c r="C21" s="24"/>
       <c r="E21" s="3"/>
       <c r="K21" s="24"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="34" t="s">
         <v>4</v>
       </c>
@@ -2118,27 +2274,62 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>30</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1850</v>
+      </c>
+      <c r="H23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1850</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="2">
+        <v>30</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1550</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1550</v>
+      </c>
+      <c r="J24" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="24">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="34" t="s">
         <v>6</v>
       </c>
+      <c r="B25" s="2">
+        <v>30</v>
+      </c>
       <c r="H25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I25" s="1">
         <v>2600</v>
@@ -2150,21 +2341,40 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="30">
       <c r="A26" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>30</v>
+      </c>
+      <c r="C26" s="23">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="1">
+        <v>485</v>
+      </c>
+      <c r="J26" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="48">
+        <v>60</v>
+      </c>
       <c r="C27" s="26"/>
       <c r="E27" s="5"/>
       <c r="H27" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I27" s="1">
         <v>1700</v>
@@ -2176,15 +2386,18 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="30">
       <c r="A28" s="34" t="s">
         <v>110</v>
       </c>
+      <c r="B28" s="48">
+        <v>60</v>
+      </c>
       <c r="H28" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>245</v>
+      <c r="I28" s="1">
+        <v>30</v>
       </c>
       <c r="J28" t="s">
         <v>171</v>
@@ -2193,15 +2406,17 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="48">
+        <v>60</v>
+      </c>
       <c r="C29" s="24"/>
       <c r="E29" s="3"/>
       <c r="H29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I29" s="1">
         <v>2150</v>
@@ -2213,21 +2428,35 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="24"/>
-      <c r="E30" s="3"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="48">
+        <v>60</v>
+      </c>
+      <c r="H30" t="s">
+        <v>237</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2300</v>
+      </c>
+      <c r="J30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="24">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="34" t="s">
         <v>38</v>
       </c>
+      <c r="B31" s="48">
+        <v>60</v>
+      </c>
       <c r="H31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I31" s="1">
         <v>2150</v>
@@ -2239,8 +2468,8 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="2">
@@ -2262,8 +2491,8 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+    <row r="33" spans="1:12">
+      <c r="A33" s="51"/>
       <c r="B33" s="2">
         <v>60</v>
       </c>
@@ -2283,11 +2512,11 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="L33" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2">
@@ -2309,8 +2538,8 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+    <row r="35" spans="1:12">
+      <c r="A35" s="51"/>
       <c r="B35" s="2">
         <v>60</v>
       </c>
@@ -2330,10 +2559,10 @@
         <v>0.68200000000000005</v>
       </c>
       <c r="L35" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
         <v>143</v>
       </c>
@@ -2356,7 +2585,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="4"/>
       <c r="B37" s="2">
         <v>60</v>
@@ -2377,7 +2606,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="34" t="s">
         <v>9</v>
       </c>
@@ -2400,7 +2629,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="B39" s="2">
         <v>60</v>
       </c>
@@ -2420,7 +2649,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="34" t="s">
         <v>8</v>
       </c>
@@ -2443,7 +2672,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="B41" s="2">
         <v>60</v>
       </c>
@@ -2463,7 +2692,7 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -2475,7 +2704,7 @@
       </c>
       <c r="E42" s="3"/>
       <c r="H42" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I42" s="1">
         <v>2150</v>
@@ -2487,16 +2716,29 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="48">
+        <v>60</v>
+      </c>
       <c r="C43" s="24"/>
       <c r="E43" s="3"/>
-      <c r="K43" s="24"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43" s="1">
+        <v>470</v>
+      </c>
+      <c r="J43" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="24">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="30">
       <c r="A44" s="34" t="s">
         <v>64</v>
       </c>
@@ -2516,7 +2758,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="30">
       <c r="A45" s="34" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +2778,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30">
       <c r="A46" s="4" t="s">
         <v>122</v>
       </c>
@@ -2558,7 +2800,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="30">
       <c r="A47" s="4" t="s">
         <v>23</v>
       </c>
@@ -2580,7 +2822,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="30">
       <c r="A48" s="34" t="s">
         <v>11</v>
       </c>
@@ -2600,8 +2842,8 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="5">
@@ -2610,7 +2852,7 @@
       <c r="C49" s="24"/>
       <c r="E49" s="3"/>
       <c r="H49" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I49" s="1">
         <v>685</v>
@@ -2622,13 +2864,13 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+    <row r="50" spans="1:12">
+      <c r="A50" s="52"/>
       <c r="B50" s="5"/>
       <c r="C50" s="24"/>
       <c r="E50" s="3"/>
       <c r="H50" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I50" s="1">
         <v>60</v>
@@ -2640,7 +2882,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="4" t="s">
         <v>25</v>
       </c>
@@ -2650,7 +2892,7 @@
       <c r="C51" s="24"/>
       <c r="E51" s="3"/>
       <c r="H51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I51" s="1">
         <v>910</v>
@@ -2662,100 +2904,265 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="K52" s="24"/>
-    </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <v>30</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="E52" s="3"/>
+      <c r="H52" t="s">
+        <v>225</v>
+      </c>
+      <c r="I52" s="1">
+        <v>685</v>
+      </c>
+      <c r="J52" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="24">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30">
       <c r="A53" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="5">
+        <v>30</v>
+      </c>
       <c r="C53" s="24"/>
       <c r="E53" s="3"/>
-      <c r="K53" s="24"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>225</v>
+      </c>
+      <c r="I53" s="1">
+        <v>685</v>
+      </c>
+      <c r="J53" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="24">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="26"/>
-      <c r="E54" s="5"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <v>30</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="E54" s="3"/>
+      <c r="H54" t="s">
+        <v>225</v>
+      </c>
+      <c r="I54" s="1">
+        <v>685</v>
+      </c>
+      <c r="J54" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="24">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="K55" s="24"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
+        <v>30</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="E55" s="3"/>
+      <c r="H55" t="s">
+        <v>225</v>
+      </c>
+      <c r="I55" s="1">
+        <v>685</v>
+      </c>
+      <c r="J55" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="24">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="5">
+        <v>30</v>
+      </c>
       <c r="C56" s="24"/>
       <c r="E56" s="3"/>
-      <c r="K56" s="24"/>
-    </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>225</v>
+      </c>
+      <c r="I56" s="1">
+        <v>685</v>
+      </c>
+      <c r="J56" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="24">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="30">
       <c r="A57" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="K57" s="24"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="48">
+        <v>60</v>
+      </c>
+      <c r="H57" t="s">
+        <v>299</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1700</v>
+      </c>
+      <c r="J57" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="24">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75">
       <c r="A58" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="6"/>
+      <c r="B58" s="48">
+        <v>60</v>
+      </c>
       <c r="C58" s="27"/>
       <c r="E58" s="6"/>
-      <c r="K58" s="24"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>299</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1700</v>
+      </c>
+      <c r="J58" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="24">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="48">
+        <v>60</v>
+      </c>
       <c r="C59" s="24"/>
       <c r="E59" s="3"/>
-      <c r="K59" s="24"/>
-    </row>
-    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>305</v>
+      </c>
+      <c r="I59" s="1">
+        <v>500</v>
+      </c>
+      <c r="J59" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="L59" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="30">
       <c r="A60" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K60" s="24"/>
-    </row>
-    <row r="61" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="s">
+      <c r="B60" s="48">
+        <v>60</v>
+      </c>
+      <c r="H60" t="s">
+        <v>305</v>
+      </c>
+      <c r="I60" s="1">
+        <v>500</v>
+      </c>
+      <c r="J60" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="L60" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="45" customHeight="1">
+      <c r="A61" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="K61" s="24"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
+      <c r="B61" s="48">
+        <v>60</v>
+      </c>
+      <c r="H61" t="s">
+        <v>305</v>
+      </c>
+      <c r="I61" s="1">
+        <v>500</v>
+      </c>
+      <c r="J61" t="s">
+        <v>171</v>
+      </c>
+      <c r="K61" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="L61" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="51"/>
       <c r="K62" s="24"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K63" s="24"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="48">
+        <v>60</v>
+      </c>
+      <c r="H63" t="s">
+        <v>187</v>
+      </c>
+      <c r="I63" s="1">
+        <v>30</v>
+      </c>
+      <c r="J63" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="24">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="34" t="s">
         <v>43</v>
       </c>
+      <c r="B64" s="48">
+        <v>60</v>
+      </c>
       <c r="H64" t="s">
         <v>190</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J64" t="s">
         <v>171</v>
@@ -2764,12 +3171,15 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="34" t="s">
         <v>66</v>
       </c>
+      <c r="B65" s="48">
+        <v>60</v>
+      </c>
       <c r="H65" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I65" s="1">
         <v>7850</v>
@@ -2781,18 +3191,20 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="7"/>
+      <c r="B66" s="48">
+        <v>60</v>
+      </c>
       <c r="C66" s="28"/>
       <c r="E66" s="7"/>
       <c r="H66" t="s">
         <v>185</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>218</v>
+      <c r="I66" s="1">
+        <v>50</v>
       </c>
       <c r="J66" t="s">
         <v>171</v>
@@ -2801,15 +3213,18 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="34" t="s">
         <v>13</v>
       </c>
+      <c r="B67" s="48">
+        <v>60</v>
+      </c>
       <c r="H67" t="s">
         <v>185</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>218</v>
+      <c r="I67" s="1">
+        <v>30</v>
       </c>
       <c r="J67" t="s">
         <v>171</v>
@@ -2818,7 +3233,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="45">
       <c r="A68" s="4" t="s">
         <v>26</v>
       </c>
@@ -2828,7 +3243,7 @@
       <c r="C68" s="24"/>
       <c r="E68" s="3"/>
       <c r="H68" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I68" s="1">
         <v>470</v>
@@ -2840,7 +3255,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4" t="s">
         <v>149</v>
       </c>
@@ -2849,18 +3264,35 @@
       <c r="E69" s="3"/>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="30">
       <c r="A70" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K70" s="24"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="48">
+        <v>60</v>
+      </c>
+      <c r="H70" t="s">
+        <v>215</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1850</v>
+      </c>
+      <c r="J70" t="s">
+        <v>171</v>
+      </c>
+      <c r="K70" s="24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="34" t="s">
         <v>44</v>
       </c>
+      <c r="B71" s="48">
+        <v>60</v>
+      </c>
       <c r="H71" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I71" s="1">
         <v>2000</v>
@@ -2872,31 +3304,55 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="24"/>
-      <c r="E72" s="3"/>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K73" s="24"/>
-    </row>
-    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="48">
+        <v>60</v>
+      </c>
+      <c r="H73" t="s">
+        <v>297</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J73" t="s">
+        <v>171</v>
+      </c>
+      <c r="K73" s="24">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30">
       <c r="A74" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="48">
+        <v>60</v>
+      </c>
       <c r="C74" s="24"/>
       <c r="E74" s="3"/>
-      <c r="K74" s="24"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>297</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J74" t="s">
+        <v>171</v>
+      </c>
+      <c r="K74" s="24">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="34" t="s">
         <v>14</v>
       </c>
@@ -2907,7 +3363,7 @@
         <v>850</v>
       </c>
       <c r="H75" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I75" s="1">
         <v>925</v>
@@ -2919,7 +3375,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
@@ -2930,7 +3386,7 @@
         <v>850</v>
       </c>
       <c r="H76" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I76" s="1">
         <v>925</v>
@@ -2942,7 +3398,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="30">
       <c r="A77" s="4" t="s">
         <v>27</v>
       </c>
@@ -2953,7 +3409,7 @@
         <v>850</v>
       </c>
       <c r="H77" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I77" s="1">
         <v>925</v>
@@ -2965,12 +3421,15 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="34" t="s">
         <v>61</v>
       </c>
+      <c r="B78" s="2">
+        <v>30</v>
+      </c>
       <c r="H78" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I78" s="1">
         <v>1100</v>
@@ -2982,33 +3441,64 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="5">
+        <v>30</v>
+      </c>
       <c r="C79" s="24"/>
       <c r="E79" s="3"/>
-      <c r="K79" s="24"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>225</v>
+      </c>
+      <c r="I79" s="1">
+        <v>685</v>
+      </c>
+      <c r="J79" t="s">
+        <v>171</v>
+      </c>
+      <c r="K79" s="24">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="K80" s="24"/>
-    </row>
-    <row r="81" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B80" s="5">
+        <v>30</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="E80" s="3"/>
+      <c r="H80" t="s">
+        <v>225</v>
+      </c>
+      <c r="I80" s="1">
+        <v>685</v>
+      </c>
+      <c r="J80" t="s">
+        <v>171</v>
+      </c>
+      <c r="K80" s="24">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="31.5">
       <c r="A81" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="6"/>
+      <c r="B81" s="48">
+        <v>60</v>
+      </c>
       <c r="C81" s="27"/>
       <c r="E81" s="6"/>
       <c r="H81" t="s">
         <v>185</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>218</v>
+      <c r="I81" s="1">
+        <v>30</v>
       </c>
       <c r="J81" t="s">
         <v>171</v>
@@ -3017,7 +3507,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="34" t="s">
         <v>28</v>
       </c>
@@ -3028,10 +3518,10 @@
         <v>225</v>
       </c>
       <c r="H82" t="s">
-        <v>219</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="I82" s="1">
+        <v>150</v>
       </c>
       <c r="J82" t="s">
         <v>171</v>
@@ -3040,19 +3530,34 @@
         <v>0.155</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="24"/>
+      <c r="B83" s="3">
+        <v>30</v>
+      </c>
+      <c r="C83" s="24">
+        <v>30</v>
+      </c>
       <c r="E83" s="3"/>
-      <c r="K83" s="24"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>187</v>
+      </c>
+      <c r="I83" s="1">
+        <v>30</v>
+      </c>
+      <c r="J83" t="s">
+        <v>171</v>
+      </c>
+      <c r="K83" s="24">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="4" t="s">
         <v>125</v>
       </c>
@@ -3061,15 +3566,17 @@
       <c r="E84" s="3"/>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="5"/>
+      <c r="B85" s="48">
+        <v>60</v>
+      </c>
       <c r="C85" s="26"/>
       <c r="E85" s="5"/>
       <c r="H85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I85" s="1">
         <v>2150</v>
@@ -3081,12 +3588,15 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="34" t="s">
         <v>46</v>
       </c>
+      <c r="B86" s="48">
+        <v>60</v>
+      </c>
       <c r="H86" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I86" s="1">
         <v>1550</v>
@@ -3098,27 +3608,29 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="48">
+        <v>60</v>
+      </c>
       <c r="C87" s="24"/>
       <c r="E87" s="3"/>
-      <c r="H87" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="I87" s="39">
+      <c r="H87" t="s">
+        <v>247</v>
+      </c>
+      <c r="I87" s="1">
         <v>2.9</v>
       </c>
-      <c r="J87" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="K87" s="41">
+      <c r="J87" t="s">
+        <v>236</v>
+      </c>
+      <c r="K87" s="24">
         <v>6.36</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="30">
       <c r="A88" s="4" t="s">
         <v>29</v>
       </c>
@@ -3128,7 +3640,7 @@
       <c r="C88" s="24"/>
       <c r="E88" s="3"/>
       <c r="H88" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I88" s="1">
         <v>470</v>
@@ -3140,7 +3652,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="4"/>
       <c r="B89" s="3">
         <v>30</v>
@@ -3148,7 +3660,7 @@
       <c r="C89" s="24"/>
       <c r="E89" s="3"/>
       <c r="H89" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I89" s="1">
         <v>60</v>
@@ -3160,393 +3672,636 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="30">
       <c r="A90" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="24"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
+      <c r="B90" s="3">
+        <v>30</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="E90" s="3"/>
+      <c r="H90" t="s">
+        <v>223</v>
+      </c>
+      <c r="I90" s="1">
+        <v>470</v>
+      </c>
+      <c r="J90" t="s">
+        <v>171</v>
+      </c>
+      <c r="K90" s="24">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="B91" s="3">
+        <v>30</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="E91" s="3"/>
+      <c r="H91" t="s">
+        <v>226</v>
+      </c>
+      <c r="I91" s="1">
+        <v>60</v>
+      </c>
+      <c r="J91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K91" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="K91" s="24"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="B92" s="48">
+        <v>60</v>
+      </c>
+      <c r="H92" t="s">
+        <v>238</v>
+      </c>
+      <c r="I92" s="1">
+        <v>900</v>
+      </c>
+      <c r="J92" t="s">
+        <v>171</v>
+      </c>
+      <c r="K92" s="24">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="24"/>
-      <c r="E92" s="3"/>
-      <c r="H92" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="I92" s="39">
-        <v>63.3</v>
-      </c>
-      <c r="J92" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="K92" s="41">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" s="3"/>
+      <c r="B93" s="48">
+        <v>60</v>
+      </c>
       <c r="C93" s="24"/>
       <c r="E93" s="3"/>
-      <c r="K93" s="24"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
+      <c r="H93" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="I93" s="39">
+        <v>63.3</v>
+      </c>
+      <c r="J93" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="K93" s="41">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="30">
+      <c r="A94" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" s="48">
+        <v>60</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="E94" s="3"/>
+      <c r="H94" t="s">
+        <v>225</v>
+      </c>
+      <c r="I94" s="1">
+        <v>685</v>
+      </c>
+      <c r="J94" t="s">
+        <v>171</v>
+      </c>
+      <c r="K94" s="24">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="26"/>
-      <c r="E94" s="5"/>
-      <c r="K94" s="24"/>
-    </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="B95" s="5"/>
+      <c r="C95" s="26"/>
+      <c r="E95" s="5"/>
+      <c r="K95" s="24"/>
+    </row>
+    <row r="96" spans="1:12" ht="30">
+      <c r="A96" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="24"/>
-      <c r="E95" s="3"/>
-      <c r="K95" s="24"/>
-    </row>
-    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B96" s="3"/>
+      <c r="B96" s="48">
+        <v>60</v>
+      </c>
       <c r="C96" s="24"/>
       <c r="E96" s="3"/>
-      <c r="K96" s="24"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>226</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J96" t="s">
+        <v>171</v>
+      </c>
+      <c r="K96" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="30">
       <c r="A97" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B97" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="B97" s="48">
+        <v>60</v>
+      </c>
       <c r="C97" s="24"/>
       <c r="E97" s="3"/>
-      <c r="K97" s="24"/>
-    </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>226</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J97" t="s">
+        <v>171</v>
+      </c>
+      <c r="K97" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="24"/>
       <c r="E98" s="3"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="34" t="s">
+    <row r="99" spans="1:12" ht="30">
+      <c r="A99" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="48">
+        <v>60</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="E99" s="3"/>
+      <c r="H99" t="s">
+        <v>226</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J99" t="s">
+        <v>171</v>
+      </c>
+      <c r="K99" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="K99" s="24"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="H100" t="s">
+        <v>264</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J100" t="s">
+        <v>236</v>
+      </c>
+      <c r="K100" s="24">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="24"/>
-      <c r="E100" s="3"/>
-      <c r="K100" s="24"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
+      <c r="B101" s="3"/>
+      <c r="C101" s="24"/>
+      <c r="E101" s="3"/>
+      <c r="K101" s="24"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="24"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B102" s="2">
-        <v>30</v>
-      </c>
-      <c r="C102" s="23">
+      <c r="B102" s="48">
+        <v>60</v>
+      </c>
+      <c r="H102" t="s">
+        <v>291</v>
+      </c>
+      <c r="I102" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J102" t="s">
+        <v>171</v>
+      </c>
+      <c r="K102" s="24">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="B103" s="48">
+        <v>60</v>
+      </c>
+      <c r="H103" t="s">
+        <v>294</v>
+      </c>
+      <c r="I103" s="1">
+        <f>40.5/0.015</f>
+        <v>2700</v>
+      </c>
+      <c r="J103" t="s">
+        <v>171</v>
+      </c>
+      <c r="K103" s="24">
+        <f>16.2/40.5</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="L103" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" s="2">
+        <v>30</v>
+      </c>
+      <c r="C104" s="23">
         <v>940</v>
       </c>
-      <c r="H102" t="s">
-        <v>233</v>
-      </c>
-      <c r="I102" s="1">
+      <c r="H104" t="s">
+        <v>230</v>
+      </c>
+      <c r="I104" s="1">
         <v>920</v>
       </c>
-      <c r="J102" t="s">
-        <v>171</v>
-      </c>
-      <c r="K102" s="24">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="34" t="s">
+      <c r="J104" t="s">
+        <v>171</v>
+      </c>
+      <c r="K104" s="24">
+        <v>3.0895000000000001</v>
+      </c>
+      <c r="L104" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="B105" s="2">
+        <v>30</v>
+      </c>
+      <c r="C105" s="23">
+        <v>940</v>
+      </c>
+      <c r="H105" t="s">
+        <v>230</v>
+      </c>
+      <c r="I105" s="1">
+        <v>920</v>
+      </c>
+      <c r="J105" t="s">
+        <v>171</v>
+      </c>
+      <c r="K105" s="24">
+        <v>3.0895000000000001</v>
+      </c>
+      <c r="L105" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B103" s="2">
-        <v>30</v>
-      </c>
-      <c r="C103" s="23">
+      <c r="B106" s="2">
+        <v>30</v>
+      </c>
+      <c r="C106" s="23">
         <v>940</v>
       </c>
-      <c r="H103" t="s">
-        <v>233</v>
-      </c>
-      <c r="I103" s="1">
+      <c r="H106" t="s">
+        <v>230</v>
+      </c>
+      <c r="I106" s="1">
         <v>920</v>
       </c>
-      <c r="J103" t="s">
-        <v>171</v>
-      </c>
-      <c r="K103" s="24">
-        <v>5.53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
+      <c r="J106" t="s">
+        <v>171</v>
+      </c>
+      <c r="K106" s="24">
+        <v>3.0895000000000001</v>
+      </c>
+      <c r="L106" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K104" s="24"/>
-    </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="B107" s="48">
+        <v>60</v>
+      </c>
+      <c r="H107" t="s">
+        <v>298</v>
+      </c>
+      <c r="I107" s="1">
+        <v>605</v>
+      </c>
+      <c r="J107" t="s">
+        <v>171</v>
+      </c>
+      <c r="K107" s="24">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="30">
+      <c r="A108" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="24"/>
-      <c r="E105" s="3"/>
-      <c r="K105" s="24"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="24"/>
-      <c r="E106" s="3"/>
-      <c r="K106" s="24"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="24"/>
-      <c r="E107" s="3"/>
-      <c r="H107" t="s">
-        <v>253</v>
-      </c>
-      <c r="I107" s="1">
-        <v>40</v>
-      </c>
-      <c r="J107" t="s">
-        <v>171</v>
-      </c>
-      <c r="K107" s="24">
-        <v>6.23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="24"/>
       <c r="E108" s="3"/>
-      <c r="H108" t="s">
-        <v>235</v>
-      </c>
-      <c r="I108" s="1">
-        <v>910</v>
-      </c>
-      <c r="J108" t="s">
-        <v>171</v>
-      </c>
-      <c r="K108" s="24">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K108" s="24"/>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B109" s="3">
-        <v>30</v>
-      </c>
-      <c r="C109" s="24">
-        <v>30</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="24"/>
       <c r="E109" s="3"/>
-      <c r="H109" t="s">
-        <v>187</v>
-      </c>
-      <c r="I109" s="1">
-        <v>30</v>
-      </c>
-      <c r="J109" t="s">
-        <v>171</v>
-      </c>
-      <c r="K109" s="24">
-        <v>7.52</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="24"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B110" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="B110" s="48">
+        <v>60</v>
+      </c>
       <c r="C110" s="24"/>
       <c r="E110" s="3"/>
-      <c r="K110" s="24"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="34" t="s">
+      <c r="H110" t="s">
+        <v>249</v>
+      </c>
+      <c r="I110" s="1">
+        <v>40</v>
+      </c>
+      <c r="J110" t="s">
+        <v>171</v>
+      </c>
+      <c r="K110" s="24">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="48">
+        <v>60</v>
+      </c>
+      <c r="C111" s="24"/>
+      <c r="E111" s="3"/>
+      <c r="H111" t="s">
+        <v>232</v>
+      </c>
+      <c r="I111" s="1">
+        <v>910</v>
+      </c>
+      <c r="J111" t="s">
+        <v>171</v>
+      </c>
+      <c r="K111" s="24">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="30">
+      <c r="A112" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="3">
+        <v>30</v>
+      </c>
+      <c r="C112" s="24">
+        <v>30</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="H112" t="s">
+        <v>187</v>
+      </c>
+      <c r="I112" s="1">
+        <v>30</v>
+      </c>
+      <c r="J112" t="s">
+        <v>171</v>
+      </c>
+      <c r="K112" s="24">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" s="3">
+        <v>30</v>
+      </c>
+      <c r="C113" s="24">
+        <v>30</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="H113" t="s">
+        <v>187</v>
+      </c>
+      <c r="I113" s="1">
+        <v>30</v>
+      </c>
+      <c r="J113" t="s">
+        <v>171</v>
+      </c>
+      <c r="K113" s="24">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="K111" s="24"/>
-    </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="B114" s="2">
+        <v>60</v>
+      </c>
+      <c r="H114" t="s">
+        <v>229</v>
+      </c>
+      <c r="I114" s="1">
+        <v>2150</v>
+      </c>
+      <c r="J114" t="s">
+        <v>171</v>
+      </c>
+      <c r="K114" s="24">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="30">
+      <c r="A115" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="24"/>
-      <c r="E112" s="3"/>
-      <c r="K112" s="24"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="24"/>
-      <c r="E113" s="3"/>
-      <c r="K113" s="24"/>
-    </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="K114" s="24"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115" s="3"/>
+      <c r="B115" s="48">
+        <v>60</v>
+      </c>
       <c r="C115" s="24"/>
       <c r="E115" s="3"/>
-      <c r="K115" s="24"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>230</v>
+      </c>
+      <c r="I115" s="1">
+        <v>920</v>
+      </c>
+      <c r="J115" t="s">
+        <v>171</v>
+      </c>
+      <c r="K115" s="24">
+        <v>3.0895000000000001</v>
+      </c>
+      <c r="L115" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B116" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="B116" s="48">
+        <v>60</v>
+      </c>
       <c r="C116" s="24"/>
       <c r="E116" s="3"/>
-      <c r="K116" s="24"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="26"/>
-      <c r="E117" s="5"/>
-      <c r="K117" s="24"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>230</v>
+      </c>
+      <c r="I116" s="1">
+        <v>920</v>
+      </c>
+      <c r="J116" t="s">
+        <v>171</v>
+      </c>
+      <c r="K116" s="24">
+        <v>3.0895000000000001</v>
+      </c>
+      <c r="L116" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="30">
+      <c r="A117" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" s="48">
+        <v>60</v>
+      </c>
+      <c r="H117" t="s">
+        <v>300</v>
+      </c>
+      <c r="I117" s="1">
+        <f>8.25/0.075</f>
+        <v>110</v>
+      </c>
+      <c r="J117" t="s">
+        <v>269</v>
+      </c>
+      <c r="K117" s="24">
+        <f>27.5/8.5</f>
+        <v>3.2352941176470589</v>
+      </c>
+      <c r="L117" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" s="3">
-        <v>30</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B118" s="3"/>
       <c r="C118" s="24"/>
       <c r="E118" s="3"/>
-      <c r="H118" t="s">
-        <v>229</v>
-      </c>
-      <c r="I118" s="1">
-        <v>100</v>
-      </c>
-      <c r="J118" t="s">
-        <v>171</v>
-      </c>
-      <c r="K118" s="24">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="24"/>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B119" s="3">
-        <v>30</v>
+        <v>137</v>
+      </c>
+      <c r="B119" s="48">
+        <v>60</v>
       </c>
       <c r="C119" s="24"/>
       <c r="E119" s="3"/>
       <c r="H119" t="s">
-        <v>229</v>
-      </c>
-      <c r="I119" s="1">
-        <v>60</v>
+        <v>202</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="J119" t="s">
         <v>171</v>
       </c>
       <c r="K119" s="24">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B120" s="3">
-        <v>30</v>
-      </c>
-      <c r="C120" s="24"/>
-      <c r="E120" s="3"/>
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B120" s="48">
+        <v>60</v>
+      </c>
+      <c r="C120" s="26"/>
+      <c r="E120" s="5"/>
       <c r="H120" t="s">
-        <v>229</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>230</v>
+        <v>302</v>
+      </c>
+      <c r="I120" s="1">
+        <v>2500</v>
       </c>
       <c r="J120" t="s">
         <v>171</v>
       </c>
       <c r="K120" s="24">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" s="5">
+        <v>91</v>
+      </c>
+      <c r="B121" s="3">
         <v>30</v>
       </c>
       <c r="C121" s="24"/>
       <c r="E121" s="3"/>
       <c r="H121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I121" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="J121" t="s">
         <v>171</v>
@@ -3555,17 +4310,17 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B122" s="5">
+        <v>80</v>
+      </c>
+      <c r="B122" s="3">
         <v>30</v>
       </c>
       <c r="C122" s="24"/>
       <c r="E122" s="3"/>
       <c r="H122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I122" s="1">
         <v>60</v>
@@ -3577,9 +4332,9 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" s="4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B123" s="3">
         <v>30</v>
@@ -3587,258 +4342,363 @@
       <c r="C123" s="24"/>
       <c r="E123" s="3"/>
       <c r="H123" t="s">
+        <v>226</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I123" s="1">
-        <v>2000</v>
-      </c>
       <c r="J123" t="s">
         <v>171</v>
       </c>
       <c r="K123" s="24">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B124" s="2">
-        <v>30</v>
-      </c>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" s="5">
+        <v>30</v>
+      </c>
+      <c r="C124" s="24"/>
+      <c r="E124" s="3"/>
       <c r="H124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I124" s="1">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="J124" t="s">
         <v>171</v>
       </c>
       <c r="K124" s="24">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="4" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B125" s="5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C125" s="24"/>
       <c r="E125" s="3"/>
       <c r="H125" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="I125" s="1">
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="J125" t="s">
         <v>171</v>
       </c>
       <c r="K125" s="24">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B126" s="5">
-        <v>60</v>
+        <v>146</v>
+      </c>
+      <c r="B126" s="3">
+        <v>30</v>
       </c>
       <c r="C126" s="24"/>
       <c r="E126" s="3"/>
       <c r="H126" t="s">
+        <v>224</v>
+      </c>
+      <c r="I126" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J126" t="s">
+        <v>171</v>
+      </c>
+      <c r="K126" s="24">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" s="2">
+        <v>30</v>
+      </c>
+      <c r="H127" t="s">
+        <v>224</v>
+      </c>
+      <c r="I127" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J127" t="s">
+        <v>171</v>
+      </c>
+      <c r="K127" s="24">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="5">
+        <v>60</v>
+      </c>
+      <c r="C128" s="24"/>
+      <c r="E128" s="3"/>
+      <c r="H128" t="s">
         <v>195</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I128" s="1">
         <v>1400</v>
       </c>
-      <c r="J126" t="s">
-        <v>171</v>
-      </c>
-      <c r="K126" s="24">
+      <c r="J128" t="s">
+        <v>171</v>
+      </c>
+      <c r="K128" s="24">
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="34" t="s">
+    <row r="129" spans="1:11">
+      <c r="A129" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129" s="5">
+        <v>60</v>
+      </c>
+      <c r="C129" s="24"/>
+      <c r="E129" s="3"/>
+      <c r="H129" t="s">
+        <v>195</v>
+      </c>
+      <c r="I129" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J129" t="s">
+        <v>171</v>
+      </c>
+      <c r="K129" s="24">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="H127" t="s">
-        <v>254</v>
-      </c>
-      <c r="I127" s="1">
+      <c r="B130" s="2">
+        <v>30</v>
+      </c>
+      <c r="H130" t="s">
+        <v>250</v>
+      </c>
+      <c r="I130" s="1">
         <v>675</v>
       </c>
-      <c r="J127" t="s">
-        <v>171</v>
-      </c>
-      <c r="K127" s="24">
+      <c r="J130" t="s">
+        <v>171</v>
+      </c>
+      <c r="K130" s="24">
         <v>0.126</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+    <row r="131" spans="1:11">
+      <c r="A131" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B128" s="2">
-        <v>30</v>
-      </c>
-      <c r="C128" s="23">
-        <v>30</v>
-      </c>
-      <c r="H128" t="s">
-        <v>224</v>
-      </c>
-      <c r="I128" s="1">
+      <c r="B131" s="2">
+        <v>30</v>
+      </c>
+      <c r="C131" s="23">
+        <v>30</v>
+      </c>
+      <c r="H131" t="s">
+        <v>222</v>
+      </c>
+      <c r="I131" s="1">
         <v>485</v>
       </c>
-      <c r="J128" t="s">
-        <v>171</v>
-      </c>
-      <c r="K128" s="24">
+      <c r="J131" t="s">
+        <v>171</v>
+      </c>
+      <c r="K131" s="24">
         <v>0.125</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="34" t="s">
+    <row r="132" spans="1:11">
+      <c r="A132" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B129" s="2">
-        <v>30</v>
-      </c>
-      <c r="C129" s="23">
-        <v>30</v>
-      </c>
-      <c r="H129" t="s">
-        <v>224</v>
-      </c>
-      <c r="I129" s="1">
+      <c r="B132" s="2">
+        <v>30</v>
+      </c>
+      <c r="C132" s="23">
+        <v>30</v>
+      </c>
+      <c r="H132" t="s">
+        <v>222</v>
+      </c>
+      <c r="I132" s="1">
         <v>485</v>
       </c>
-      <c r="J129" t="s">
-        <v>171</v>
-      </c>
-      <c r="K129" s="24">
+      <c r="J132" t="s">
+        <v>171</v>
+      </c>
+      <c r="K132" s="24">
         <v>0.125</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="34" t="s">
+    <row r="133" spans="1:11">
+      <c r="A133" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="K130" s="24"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="B133" s="2">
+        <v>30</v>
+      </c>
+      <c r="C133" s="23">
+        <v>30</v>
+      </c>
+      <c r="H133" t="s">
+        <v>222</v>
+      </c>
+      <c r="I133" s="1">
+        <v>485</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+      <c r="K133" s="24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="24"/>
-      <c r="E131" s="3"/>
-      <c r="K131" s="24"/>
-    </row>
-    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="34" t="s">
+      <c r="B134" s="2">
+        <v>30</v>
+      </c>
+      <c r="C134" s="23">
+        <v>30</v>
+      </c>
+      <c r="H134" t="s">
+        <v>222</v>
+      </c>
+      <c r="I134" s="1">
+        <v>485</v>
+      </c>
+      <c r="J134" t="s">
+        <v>171</v>
+      </c>
+      <c r="K134" s="24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="30">
+      <c r="A135" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="K132" s="24"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="B135" s="48">
+        <v>60</v>
+      </c>
+      <c r="H135" t="s">
+        <v>200</v>
+      </c>
+      <c r="I135" s="1">
+        <v>7850</v>
+      </c>
+      <c r="J135" t="s">
+        <v>171</v>
+      </c>
+      <c r="K135" s="24">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="24"/>
-      <c r="E133" s="3"/>
-      <c r="K133" s="24"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="34" t="s">
+      <c r="B136" s="48">
+        <v>60</v>
+      </c>
+      <c r="C136" s="24"/>
+      <c r="E136" s="3"/>
+      <c r="H136" t="s">
+        <v>200</v>
+      </c>
+      <c r="I136" s="1">
+        <v>7850</v>
+      </c>
+      <c r="J136" t="s">
+        <v>171</v>
+      </c>
+      <c r="K136" s="24">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K134" s="24"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="34" t="s">
+      <c r="B137" s="48">
+        <v>60</v>
+      </c>
+      <c r="H137" t="s">
+        <v>246</v>
+      </c>
+      <c r="I137" s="1">
+        <v>1550</v>
+      </c>
+      <c r="J137" t="s">
+        <v>171</v>
+      </c>
+      <c r="K137" s="24">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K135" s="24"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="34" t="s">
+      <c r="K138" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="K136" s="24"/>
-    </row>
-    <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="K139" s="24"/>
+    </row>
+    <row r="140" spans="1:11" ht="45">
+      <c r="A140" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="24"/>
-      <c r="E137" s="3"/>
-      <c r="K137" s="24"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="B140" s="3"/>
+      <c r="C140" s="24"/>
+      <c r="E140" s="3"/>
+      <c r="K140" s="24"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="24"/>
-      <c r="E138" s="3"/>
-      <c r="K138" s="24"/>
-    </row>
-    <row r="139" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="36" t="s">
+      <c r="B141" s="3"/>
+      <c r="C141" s="24"/>
+      <c r="E141" s="3"/>
+      <c r="K141" s="24"/>
+    </row>
+    <row r="142" spans="1:11" ht="31.5">
+      <c r="A142" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="27"/>
-      <c r="E139" s="6"/>
-      <c r="K139" s="24"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B140" s="2">
-        <v>30</v>
-      </c>
-      <c r="K140" s="24"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B141" s="2">
-        <v>30</v>
-      </c>
-      <c r="H141" t="s">
-        <v>226</v>
-      </c>
-      <c r="I141" s="1">
-        <v>470</v>
-      </c>
-      <c r="J141" t="s">
-        <v>171</v>
-      </c>
-      <c r="K141" s="24">
-        <v>0.44600000000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="34" t="s">
-        <v>53</v>
-      </c>
       <c r="B142" s="2">
         <v>30</v>
       </c>
       <c r="H142" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I142" s="1">
         <v>470</v>
@@ -3850,15 +4710,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="34" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B143" s="2">
         <v>30</v>
       </c>
       <c r="H143" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I143" s="1">
         <v>470</v>
@@ -3870,15 +4730,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="34" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B144" s="2">
         <v>30</v>
       </c>
       <c r="H144" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I144" s="1">
         <v>470</v>
@@ -3890,15 +4750,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="45">
       <c r="A145" s="34" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B145" s="2">
         <v>30</v>
       </c>
       <c r="H145" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I145" s="1">
         <v>470</v>
@@ -3910,15 +4770,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="30">
       <c r="A146" s="34" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B146" s="2">
         <v>30</v>
       </c>
       <c r="H146" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I146" s="1">
         <v>470</v>
@@ -3930,15 +4790,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="34" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B147" s="2">
         <v>30</v>
       </c>
       <c r="H147" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I147" s="1">
         <v>470</v>
@@ -3950,15 +4810,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="34" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="B148" s="2">
         <v>30</v>
       </c>
       <c r="H148" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I148" s="1">
         <v>470</v>
@@ -3970,15 +4830,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="34" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B149" s="2">
         <v>30</v>
       </c>
       <c r="H149" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I149" s="1">
         <v>470</v>
@@ -3990,15 +4850,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="30">
       <c r="A150" s="34" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="B150" s="2">
         <v>30</v>
       </c>
       <c r="H150" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I150" s="1">
         <v>470</v>
@@ -4010,15 +4870,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="30">
       <c r="A151" s="34" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B151" s="2">
         <v>30</v>
       </c>
       <c r="H151" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I151" s="1">
         <v>470</v>
@@ -4030,15 +4890,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="45">
       <c r="A152" s="34" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B152" s="2">
         <v>30</v>
       </c>
       <c r="H152" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I152" s="1">
         <v>470</v>
@@ -4050,15 +4910,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="34" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B153" s="2">
         <v>30</v>
       </c>
       <c r="H153" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I153" s="1">
         <v>470</v>
@@ -4070,15 +4930,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="30">
       <c r="A154" s="34" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B154" s="2">
         <v>30</v>
       </c>
       <c r="H154" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I154" s="1">
         <v>470</v>
@@ -4090,15 +4950,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="30">
       <c r="A155" s="34" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B155" s="2">
         <v>30</v>
       </c>
       <c r="H155" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I155" s="1">
         <v>470</v>
@@ -4110,15 +4970,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="30">
       <c r="A156" s="34" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="B156" s="2">
         <v>30</v>
       </c>
       <c r="H156" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I156" s="1">
         <v>470</v>
@@ -4130,15 +4990,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="30">
       <c r="A157" s="34" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B157" s="2">
         <v>30</v>
       </c>
       <c r="H157" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I157" s="1">
         <v>470</v>
@@ -4150,15 +5010,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="45">
       <c r="A158" s="34" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B158" s="2">
         <v>30</v>
       </c>
       <c r="H158" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I158" s="1">
         <v>470</v>
@@ -4170,15 +5030,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="30">
       <c r="A159" s="34" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>30</v>
       </c>
       <c r="H159" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I159" s="1">
         <v>470</v>
@@ -4190,15 +5050,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="30">
       <c r="A160" s="34" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B160" s="2">
         <v>30</v>
       </c>
       <c r="H160" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I160" s="1">
         <v>470</v>
@@ -4210,17 +5070,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>131</v>
+    <row r="161" spans="1:21">
+      <c r="A161" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="B161" s="2">
         <v>30</v>
       </c>
-      <c r="C161" s="24"/>
-      <c r="E161" s="3"/>
       <c r="H161" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I161" s="1">
         <v>470</v>
@@ -4232,17 +5090,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>83</v>
+    <row r="162" spans="1:21">
+      <c r="A162" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="B162" s="2">
         <v>30</v>
       </c>
-      <c r="C162" s="24"/>
-      <c r="E162" s="3"/>
       <c r="H162" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I162" s="1">
         <v>470</v>
@@ -4254,15 +5110,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21">
       <c r="A163" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B163" s="2">
         <v>30</v>
       </c>
       <c r="H163" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I163" s="1">
         <v>470</v>
@@ -4274,9 +5130,9 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" ht="45">
       <c r="A164" s="4" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="B164" s="2">
         <v>30</v>
@@ -4284,7 +5140,7 @@
       <c r="C164" s="24"/>
       <c r="E164" s="3"/>
       <c r="H164" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I164" s="1">
         <v>470</v>
@@ -4296,15 +5152,17 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="34" t="s">
-        <v>107</v>
+    <row r="165" spans="1:21" ht="30">
+      <c r="A165" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B165" s="2">
         <v>30</v>
       </c>
+      <c r="C165" s="24"/>
+      <c r="E165" s="3"/>
       <c r="H165" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I165" s="1">
         <v>470</v>
@@ -4316,15 +5174,15 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" ht="45">
       <c r="A166" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B166" s="2">
         <v>30</v>
       </c>
       <c r="H166" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I166" s="1">
         <v>470</v>
@@ -4336,372 +5194,430 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="34" t="s">
+    <row r="167" spans="1:21" ht="30">
+      <c r="A167" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B167" s="2">
+        <v>30</v>
+      </c>
+      <c r="C167" s="24"/>
+      <c r="E167" s="3"/>
+      <c r="H167" t="s">
+        <v>223</v>
+      </c>
+      <c r="I167" s="1">
+        <v>470</v>
+      </c>
+      <c r="J167" t="s">
+        <v>171</v>
+      </c>
+      <c r="K167" s="24">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" ht="45">
+      <c r="A168" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B168" s="2">
+        <v>30</v>
+      </c>
+      <c r="H168" t="s">
+        <v>223</v>
+      </c>
+      <c r="I168" s="1">
+        <v>470</v>
+      </c>
+      <c r="J168" t="s">
+        <v>171</v>
+      </c>
+      <c r="K168" s="24">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" ht="45">
+      <c r="A169" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" s="2">
+        <v>30</v>
+      </c>
+      <c r="H169" t="s">
+        <v>223</v>
+      </c>
+      <c r="I169" s="1">
+        <v>470</v>
+      </c>
+      <c r="J169" t="s">
+        <v>171</v>
+      </c>
+      <c r="K169" s="24">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" ht="30">
+      <c r="A170" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B167" s="2">
-        <v>30</v>
-      </c>
-      <c r="C167" s="23">
+      <c r="B170" s="2">
+        <v>30</v>
+      </c>
+      <c r="C170" s="23">
         <v>940</v>
       </c>
-      <c r="H167" t="s">
-        <v>225</v>
-      </c>
-      <c r="I167" s="1">
+      <c r="H170" t="s">
+        <v>230</v>
+      </c>
+      <c r="I170" s="1">
         <v>920</v>
       </c>
-      <c r="J167" t="s">
-        <v>171</v>
-      </c>
-      <c r="K167" s="24">
-        <v>5.33</v>
-      </c>
-      <c r="N167" s="42"/>
-      <c r="Q167" s="42"/>
-      <c r="R167" s="42"/>
-      <c r="S167" s="42"/>
-      <c r="T167" s="44"/>
-      <c r="U167" s="43"/>
-    </row>
-    <row r="168" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="J170" t="s">
+        <v>171</v>
+      </c>
+      <c r="K170" s="24">
+        <v>3.0895000000000001</v>
+      </c>
+      <c r="L170" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="N170" s="42"/>
+      <c r="Q170" s="42"/>
+      <c r="R170" s="42"/>
+      <c r="S170" s="42"/>
+      <c r="T170" s="44"/>
+      <c r="U170" s="43"/>
+    </row>
+    <row r="171" spans="1:21" ht="30">
+      <c r="A171" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B168" s="2">
-        <v>30</v>
-      </c>
-      <c r="C168" s="24"/>
-      <c r="E168" s="3"/>
-      <c r="K168" s="24"/>
-      <c r="N168" s="42"/>
-      <c r="Q168" s="43"/>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="B171" s="2">
+        <v>30</v>
+      </c>
+      <c r="C171" s="24"/>
+      <c r="E171" s="3"/>
+      <c r="K171" s="24"/>
+      <c r="N171" s="42"/>
+      <c r="Q171" s="43"/>
+    </row>
+    <row r="172" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A172" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B169" s="2">
-        <v>30</v>
-      </c>
-      <c r="C169" s="24"/>
-      <c r="E169" s="3"/>
-      <c r="K169" s="24"/>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="B172" s="2">
+        <v>30</v>
+      </c>
+      <c r="C172" s="24"/>
+      <c r="E172" s="3"/>
+      <c r="K172" s="24"/>
+    </row>
+    <row r="173" spans="1:21" ht="29.25" thickBot="1">
+      <c r="A173" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B170" s="2">
-        <v>30</v>
-      </c>
-      <c r="C170" s="24"/>
-      <c r="E170" s="3"/>
-      <c r="K170" s="24"/>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A171" s="42" t="s">
+      <c r="B173" s="2">
+        <v>30</v>
+      </c>
+      <c r="C173" s="24"/>
+      <c r="E173" s="3"/>
+      <c r="H173" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="I173" s="46">
+        <v>400</v>
+      </c>
+      <c r="J173" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="K173" s="47">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B174" s="2">
+        <v>30</v>
+      </c>
+      <c r="H174" t="s">
+        <v>262</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J174" t="s">
+        <v>236</v>
+      </c>
+      <c r="K174" s="23">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="A175" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B175" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="A176" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="B176" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="B177" s="2">
+        <v>30</v>
+      </c>
+      <c r="H177" t="s">
+        <v>264</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J177" t="s">
+        <v>236</v>
+      </c>
+      <c r="K177" s="23">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="B171" s="2">
-        <v>30</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="B178" s="2">
+        <v>30</v>
+      </c>
+      <c r="C178" s="23">
+        <v>83.4</v>
+      </c>
+      <c r="H178" t="s">
+        <v>267</v>
+      </c>
+      <c r="I178" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="J178" t="s">
+        <v>269</v>
+      </c>
+      <c r="K178" s="23">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L178" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" s="50"/>
+      <c r="B179" s="2">
+        <v>30</v>
+      </c>
+      <c r="H179" t="s">
         <v>266</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="I179" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J179" t="s">
+        <v>236</v>
+      </c>
+      <c r="K179" s="24">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" s="2">
+        <v>30</v>
+      </c>
+      <c r="H180" t="s">
         <v>267</v>
       </c>
-      <c r="J171" t="s">
-        <v>239</v>
-      </c>
-      <c r="K171" s="23">
-        <v>77.599999999999994</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A172" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="B172" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A173" s="42" t="s">
+      <c r="I180" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="J180" t="s">
+        <v>269</v>
+      </c>
+      <c r="K180" s="24">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L180" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" s="50"/>
+      <c r="B181" s="2">
+        <v>30</v>
+      </c>
+      <c r="H181" t="s">
+        <v>265</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J181" t="s">
+        <v>236</v>
+      </c>
+      <c r="K181" s="24">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B173" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A174" s="42" t="s">
+      <c r="B182" s="2">
+        <v>30</v>
+      </c>
+      <c r="K182" s="24"/>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="A183" t="s">
         <v>258</v>
       </c>
-      <c r="B174" s="2">
-        <v>30</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="B183" s="2">
+        <v>30</v>
+      </c>
+      <c r="K183" s="24"/>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="B184" s="2">
+        <v>30</v>
+      </c>
+      <c r="H184" t="s">
+        <v>267</v>
+      </c>
+      <c r="I184" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="J184" t="s">
+        <v>269</v>
+      </c>
+      <c r="K184" s="24">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L184" t="s">
         <v>268</v>
       </c>
-      <c r="I174" s="1" t="s">
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="50"/>
+      <c r="B185" s="2">
+        <v>30</v>
+      </c>
+      <c r="H185" t="s">
+        <v>266</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J185" t="s">
+        <v>236</v>
+      </c>
+      <c r="K185" s="24">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B186" s="7">
+        <v>30</v>
+      </c>
+      <c r="H186" t="s">
         <v>267</v>
       </c>
-      <c r="J174" t="s">
-        <v>239</v>
-      </c>
-      <c r="K174" s="23">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A175" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="B175" s="2">
-        <v>30</v>
-      </c>
-      <c r="C175" s="23">
+      <c r="I186" s="1">
         <v>83.4</v>
       </c>
-      <c r="H175" t="s">
+      <c r="J186" t="s">
+        <v>269</v>
+      </c>
+      <c r="K186" s="24">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L186" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" s="50"/>
+      <c r="B187" s="7">
+        <v>30</v>
+      </c>
+      <c r="H187" t="s">
+        <v>265</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J187" t="s">
+        <v>236</v>
+      </c>
+      <c r="K187" s="24">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" t="s">
+        <v>261</v>
+      </c>
+      <c r="B188" s="7">
+        <v>30</v>
+      </c>
+      <c r="H188" t="s">
+        <v>303</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J188" t="s">
+        <v>236</v>
+      </c>
+      <c r="K188" s="24">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" s="7"/>
+      <c r="H189" t="s">
         <v>271</v>
       </c>
-      <c r="I175" s="1">
-        <v>83.4</v>
-      </c>
-      <c r="J175" t="s">
+      <c r="J189" t="s">
+        <v>270</v>
+      </c>
+      <c r="K189" s="24">
+        <v>4.4990000000000002E-2</v>
+      </c>
+      <c r="L189" t="s">
         <v>273</v>
       </c>
-      <c r="K175" s="23">
-        <v>0.13719999999999999</v>
-      </c>
-      <c r="L175" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A176" s="45"/>
-      <c r="B176" s="2">
-        <v>30</v>
-      </c>
-      <c r="H176" t="s">
-        <v>270</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J176" t="s">
-        <v>239</v>
-      </c>
-      <c r="K176" s="23">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="B177" s="2">
-        <v>30</v>
-      </c>
-      <c r="H177" t="s">
-        <v>271</v>
-      </c>
-      <c r="I177" s="1">
-        <v>83.4</v>
-      </c>
-      <c r="J177" t="s">
-        <v>273</v>
-      </c>
-      <c r="K177" s="23">
-        <v>0.13719999999999999</v>
-      </c>
-      <c r="L177" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" s="45"/>
-      <c r="B178" s="2">
-        <v>30</v>
-      </c>
-      <c r="H178" t="s">
-        <v>269</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J178" t="s">
-        <v>239</v>
-      </c>
-      <c r="K178" s="23">
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="B179" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>262</v>
-      </c>
-      <c r="B180" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="B181" s="2">
-        <v>30</v>
-      </c>
-      <c r="H181" t="s">
-        <v>271</v>
-      </c>
-      <c r="I181" s="1">
-        <v>83.4</v>
-      </c>
-      <c r="J181" t="s">
-        <v>273</v>
-      </c>
-      <c r="K181" s="23">
-        <v>0.13719999999999999</v>
-      </c>
-      <c r="L181" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" s="45"/>
-      <c r="B182" s="2">
-        <v>30</v>
-      </c>
-      <c r="H182" t="s">
-        <v>270</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J182" t="s">
-        <v>239</v>
-      </c>
-      <c r="K182" s="23">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="H183" t="s">
-        <v>271</v>
-      </c>
-      <c r="I183" s="1">
-        <v>83.4</v>
-      </c>
-      <c r="J183" t="s">
-        <v>273</v>
-      </c>
-      <c r="K183" s="23">
-        <v>0.13719999999999999</v>
-      </c>
-      <c r="L183" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" s="45"/>
-      <c r="H184" t="s">
-        <v>269</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J184" t="s">
-        <v>239</v>
-      </c>
-      <c r="K184" s="23">
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>276</v>
-      </c>
-      <c r="H186" t="s">
-        <v>275</v>
-      </c>
-      <c r="J186" t="s">
-        <v>274</v>
-      </c>
-      <c r="K186" s="23">
-        <v>4.4990000000000002E-2</v>
-      </c>
-      <c r="L186" t="s">
-        <v>277</v>
-      </c>
-      <c r="M186" s="1"/>
-      <c r="O186" s="23"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>289</v>
-      </c>
-      <c r="H187" t="s">
-        <v>192</v>
-      </c>
-      <c r="J187" t="s">
-        <v>193</v>
-      </c>
-      <c r="K187" s="23">
-        <v>8.2799999999999992E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>288</v>
-      </c>
-      <c r="H188" t="s">
-        <v>199</v>
-      </c>
-      <c r="J188" t="s">
-        <v>193</v>
-      </c>
-      <c r="K188" s="23">
-        <v>1.85E-4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>287</v>
-      </c>
-      <c r="H189" t="s">
-        <v>192</v>
-      </c>
-      <c r="J189" t="s">
-        <v>193</v>
-      </c>
-      <c r="K189" s="23">
-        <v>8.2799999999999992E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M189" s="1"/>
+      <c r="O189" s="23"/>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H190" t="s">
         <v>192</v>
@@ -4709,37 +5625,55 @@
       <c r="J190" t="s">
         <v>193</v>
       </c>
-      <c r="K190" s="23">
+      <c r="K190" s="24">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H191" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J191" t="s">
         <v>193</v>
       </c>
-      <c r="K191" s="23">
+      <c r="K191" s="24">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
+      <c r="A192" t="s">
+        <v>283</v>
+      </c>
+      <c r="H192" t="s">
+        <v>192</v>
+      </c>
+      <c r="J192" t="s">
+        <v>193</v>
+      </c>
+      <c r="K192" s="24">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="H193" t="s">
+        <v>192</v>
+      </c>
+      <c r="J193" t="s">
+        <v>193</v>
+      </c>
+      <c r="K193" s="24">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H194" t="s">
         <v>192</v>
@@ -4747,41 +5681,23 @@
       <c r="J194" t="s">
         <v>193</v>
       </c>
-      <c r="K194" s="23">
+      <c r="K194" s="24">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>281</v>
-      </c>
-      <c r="H195" t="s">
-        <v>192</v>
-      </c>
-      <c r="J195" t="s">
-        <v>193</v>
-      </c>
-      <c r="K195" s="23">
-        <v>8.2799999999999992E-3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>280</v>
-      </c>
-      <c r="H196" t="s">
-        <v>199</v>
-      </c>
-      <c r="J196" t="s">
-        <v>193</v>
-      </c>
-      <c r="K196" s="23">
-        <v>1.85E-4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H197" t="s">
         <v>192</v>
@@ -4793,9 +5709,9 @@
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H198" t="s">
         <v>192</v>
@@ -4807,25 +5723,67 @@
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="H199" s="51" t="s">
-        <v>290</v>
+    <row r="199" spans="1:11">
+      <c r="A199" t="s">
+        <v>276</v>
+      </c>
+      <c r="H199" t="s">
+        <v>199</v>
+      </c>
+      <c r="J199" t="s">
+        <v>193</v>
       </c>
       <c r="K199" s="23">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" t="s">
+        <v>275</v>
+      </c>
+      <c r="H200" t="s">
+        <v>192</v>
+      </c>
+      <c r="J200" t="s">
+        <v>193</v>
+      </c>
+      <c r="K200" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" t="s">
+        <v>274</v>
+      </c>
+      <c r="H201" t="s">
+        <v>192</v>
+      </c>
+      <c r="J201" t="s">
+        <v>193</v>
+      </c>
+      <c r="K201" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="H202" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="K202" s="23">
         <v>7.1700000000000002E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="H200" t="s">
-        <v>292</v>
-      </c>
-      <c r="K200" s="23">
+    <row r="203" spans="1:11">
+      <c r="A203" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="H203" t="s">
+        <v>288</v>
+      </c>
+      <c r="K203" s="23">
         <v>0.11509999999999999</v>
       </c>
     </row>
@@ -4839,10 +5797,10 @@
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
     <mergeCell ref="A61:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4859,7 +5817,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -4872,22 +5830,22 @@
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A1" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>163</v>
       </c>
@@ -4916,7 +5874,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="13" t="s">
         <v>170</v>
       </c>
@@ -4945,7 +5903,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="13" t="s">
         <v>177</v>
       </c>
@@ -4974,7 +5932,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="13" t="s">
         <v>180</v>
       </c>
@@ -5003,7 +5961,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="13" t="s">
         <v>182</v>
       </c>
@@ -5032,7 +5990,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="13" t="s">
         <v>185</v>
       </c>
@@ -5061,7 +6019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="13" t="s">
         <v>187</v>
       </c>
@@ -5090,7 +6048,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="13" t="s">
         <v>190</v>
       </c>
@@ -5119,7 +6077,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="13"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5142,7 +6100,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="13" t="s">
         <v>195</v>
       </c>
@@ -5171,7 +6129,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="13" t="s">
         <v>197</v>
       </c>
@@ -5200,7 +6158,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5223,7 +6181,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="13" t="s">
         <v>200</v>
       </c>
@@ -5252,7 +6210,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="13" t="s">
         <v>202</v>
       </c>
@@ -5281,7 +6239,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="13" t="s">
         <v>190</v>
       </c>
@@ -5310,18 +6268,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>184</v>
@@ -5333,7 +6291,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>

--- a/model_lca/Inventory_mapping.xlsx
+++ b/model_lca/Inventory_mapping.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="325">
   <si>
     <t xml:space="preserve">Adhesive mortar </t>
   </si>
@@ -1148,13 +1148,67 @@
   </si>
   <si>
     <t>USED Ecoinvent</t>
+  </si>
+  <si>
+    <t>'polyurethane production, flexible foam, MDI-based' (kilogram, RoW, None)</t>
+  </si>
+  <si>
+    <t>'heat production, natural gas, at boiler condensing modulating &lt;100kW' (megajoule, CH, None)</t>
+  </si>
+  <si>
+    <t>heat production, wood pellet, at furnace 25kW' (megajoule, CH, None)</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Electric heat pump air water (60 kW)</t>
+  </si>
+  <si>
+    <t>'heat production, air-water heat pump 10kW' (megajoule, CH, None)</t>
+  </si>
+  <si>
+    <t>Electric heat pump water brine (343 kW)</t>
+  </si>
+  <si>
+    <t>District heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric heat pump water brine </t>
+  </si>
+  <si>
+    <t>Electric heat pump water brine (16.7 kW)</t>
+  </si>
+  <si>
+    <t>Electric heat pump water brine (92 kW)</t>
+  </si>
+  <si>
+    <t>Wood pellet heating (67.2 kW)</t>
+  </si>
+  <si>
+    <t>Modulating condensating boiler (kW 200)</t>
+  </si>
+  <si>
+    <t>Electric heat pump water brine (24.9 kW)</t>
+  </si>
+  <si>
+    <t>Electric heat pump, air water (4.2 kW)</t>
+  </si>
+  <si>
+    <t>Electric heat pump water brine (40.8 kW)</t>
+  </si>
+  <si>
+    <t>Electric heat pump water brine (28.1 kW)</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Near/ district heating from cogeneration</t>
+  </si>
+  <si>
+    <t>market for heat, district or industrial, other than natural gas' (megajoule, CH, None)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,6 +1266,12 @@
       <b/>
       <sz val="11"/>
       <name val="Arial-BoldMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1391,7 +1451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1482,6 +1542,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1763,23 +1833,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U203"/>
+  <dimension ref="A1:U217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L174" sqref="L174"/>
+      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" style="34" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" style="23" customWidth="1"/>
@@ -1824,7 +1894,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row r="2" spans="1:15">
       <c r="A2" s="34" t="s">
         <v>112</v>
       </c>
@@ -1874,7 +1944,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1900,7 +1970,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="30">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -2085,7 +2155,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30">
+    <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -2222,7 +2292,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1">
+    <row r="20" spans="1:11">
       <c r="A20" s="52" t="s">
         <v>119</v>
       </c>
@@ -2341,7 +2411,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30">
+    <row r="26" spans="1:11">
       <c r="A26" s="34" t="s">
         <v>37</v>
       </c>
@@ -2386,7 +2456,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30">
+    <row r="28" spans="1:11">
       <c r="A28" s="34" t="s">
         <v>110</v>
       </c>
@@ -2738,7 +2808,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30">
+    <row r="44" spans="1:12">
       <c r="A44" s="34" t="s">
         <v>64</v>
       </c>
@@ -2758,7 +2828,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30">
+    <row r="45" spans="1:12">
       <c r="A45" s="34" t="s">
         <v>10</v>
       </c>
@@ -2778,7 +2848,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30">
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
         <v>122</v>
       </c>
@@ -2800,7 +2870,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30">
+    <row r="47" spans="1:12">
       <c r="A47" s="4" t="s">
         <v>23</v>
       </c>
@@ -2822,7 +2892,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30">
+    <row r="48" spans="1:12">
       <c r="A48" s="34" t="s">
         <v>11</v>
       </c>
@@ -2926,7 +2996,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="30">
+    <row r="53" spans="1:12">
       <c r="A53" s="4" t="s">
         <v>148</v>
       </c>
@@ -3014,7 +3084,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30">
+    <row r="57" spans="1:12">
       <c r="A57" s="34" t="s">
         <v>65</v>
       </c>
@@ -3081,7 +3151,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="30">
+    <row r="60" spans="1:12">
       <c r="A60" s="34" t="s">
         <v>41</v>
       </c>
@@ -3104,7 +3174,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="45" customHeight="1">
+    <row r="61" spans="1:12">
       <c r="A61" s="51" t="s">
         <v>42</v>
       </c>
@@ -3171,7 +3241,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:12">
       <c r="A65" s="34" t="s">
         <v>66</v>
       </c>
@@ -3191,7 +3261,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:12">
       <c r="A66" s="37" t="s">
         <v>98</v>
       </c>
@@ -3213,7 +3283,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:12">
       <c r="A67" s="34" t="s">
         <v>13</v>
       </c>
@@ -3233,7 +3303,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="45">
+    <row r="68" spans="1:12" ht="30">
       <c r="A68" s="4" t="s">
         <v>26</v>
       </c>
@@ -3255,7 +3325,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:12">
       <c r="A69" s="4" t="s">
         <v>149</v>
       </c>
@@ -3264,7 +3334,7 @@
       <c r="E69" s="3"/>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:11" ht="30">
+    <row r="70" spans="1:12" ht="30">
       <c r="A70" s="34" t="s">
         <v>67</v>
       </c>
@@ -3272,19 +3342,24 @@
         <v>60</v>
       </c>
       <c r="H70" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="I70" s="1">
-        <v>1850</v>
+        <f>40.5/0.015</f>
+        <v>2700</v>
       </c>
       <c r="J70" t="s">
         <v>171</v>
       </c>
       <c r="K70" s="24">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <f>16.2/40.5</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="L70" s="32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="34" t="s">
         <v>44</v>
       </c>
@@ -3304,13 +3379,13 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72" s="4" t="s">
         <v>87</v>
       </c>
       <c r="K72" s="24"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:12">
       <c r="A73" s="34" t="s">
         <v>45</v>
       </c>
@@ -3330,7 +3405,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="30">
+    <row r="74" spans="1:12">
       <c r="A74" s="4" t="s">
         <v>124</v>
       </c>
@@ -3352,7 +3427,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:12">
       <c r="A75" s="34" t="s">
         <v>14</v>
       </c>
@@ -3375,7 +3450,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:12">
       <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
@@ -3398,7 +3473,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="30">
+    <row r="77" spans="1:12">
       <c r="A77" s="4" t="s">
         <v>27</v>
       </c>
@@ -3421,7 +3496,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:12">
       <c r="A78" s="34" t="s">
         <v>61</v>
       </c>
@@ -3441,7 +3516,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:12">
       <c r="A79" s="4" t="s">
         <v>134</v>
       </c>
@@ -3463,7 +3538,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:12">
       <c r="A80" s="34" t="s">
         <v>109</v>
       </c>
@@ -3485,7 +3560,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="31.5">
+    <row r="81" spans="1:12" ht="15.75">
       <c r="A81" s="36" t="s">
         <v>115</v>
       </c>
@@ -3630,7 +3705,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="30">
+    <row r="88" spans="1:12">
       <c r="A88" s="4" t="s">
         <v>29</v>
       </c>
@@ -3755,7 +3830,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="30">
+    <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
         <v>150</v>
       </c>
@@ -3808,7 +3883,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="30">
+    <row r="97" spans="1:12">
       <c r="A97" s="4" t="s">
         <v>144</v>
       </c>
@@ -4030,7 +4105,7 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="30">
+    <row r="108" spans="1:12">
       <c r="A108" s="4" t="s">
         <v>152</v>
       </c>
@@ -4092,7 +4167,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="30">
+    <row r="112" spans="1:12">
       <c r="A112" s="4" t="s">
         <v>90</v>
       </c>
@@ -4104,7 +4179,7 @@
       </c>
       <c r="E112" s="3"/>
       <c r="H112" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="I112" s="1">
         <v>30</v>
@@ -4113,7 +4188,10 @@
         <v>171</v>
       </c>
       <c r="K112" s="24">
-        <v>7.52</v>
+        <v>5.32</v>
+      </c>
+      <c r="L112" s="32" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -4128,7 +4206,7 @@
       </c>
       <c r="E113" s="3"/>
       <c r="H113" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="I113" s="1">
         <v>30</v>
@@ -4137,7 +4215,10 @@
         <v>171</v>
       </c>
       <c r="K113" s="24">
-        <v>7.52</v>
+        <v>5.32</v>
+      </c>
+      <c r="L113" s="32" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -4160,7 +4241,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="30">
+    <row r="115" spans="1:12">
       <c r="A115" s="4" t="s">
         <v>154</v>
       </c>
@@ -4210,7 +4291,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="30">
+    <row r="117" spans="1:12">
       <c r="A117" s="34" t="s">
         <v>71</v>
       </c>
@@ -4596,7 +4677,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="30">
+    <row r="135" spans="1:11">
       <c r="A135" s="34" t="s">
         <v>48</v>
       </c>
@@ -4672,7 +4753,7 @@
       </c>
       <c r="K139" s="24"/>
     </row>
-    <row r="140" spans="1:11" ht="45">
+    <row r="140" spans="1:11" ht="30">
       <c r="A140" s="4" t="s">
         <v>93</v>
       </c>
@@ -4690,7 +4771,7 @@
       <c r="E141" s="3"/>
       <c r="K141" s="24"/>
     </row>
-    <row r="142" spans="1:11" ht="31.5">
+    <row r="142" spans="1:11" ht="15.75">
       <c r="A142" s="36" t="s">
         <v>113</v>
       </c>
@@ -4750,7 +4831,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="45">
+    <row r="145" spans="1:11" ht="30">
       <c r="A145" s="34" t="s">
         <v>53</v>
       </c>
@@ -4850,7 +4931,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="30">
+    <row r="150" spans="1:11">
       <c r="A150" s="34" t="s">
         <v>33</v>
       </c>
@@ -4870,7 +4951,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="30">
+    <row r="151" spans="1:11">
       <c r="A151" s="34" t="s">
         <v>140</v>
       </c>
@@ -4890,7 +4971,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="45">
+    <row r="152" spans="1:11" ht="30">
       <c r="A152" s="34" t="s">
         <v>73</v>
       </c>
@@ -4930,7 +5011,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="30">
+    <row r="154" spans="1:11">
       <c r="A154" s="34" t="s">
         <v>74</v>
       </c>
@@ -4950,7 +5031,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="30">
+    <row r="155" spans="1:11">
       <c r="A155" s="34" t="s">
         <v>108</v>
       </c>
@@ -4990,7 +5071,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="30">
+    <row r="157" spans="1:11">
       <c r="A157" s="34" t="s">
         <v>55</v>
       </c>
@@ -5010,7 +5091,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="45">
+    <row r="158" spans="1:11" ht="30">
       <c r="A158" s="34" t="s">
         <v>56</v>
       </c>
@@ -5030,7 +5111,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="30">
+    <row r="159" spans="1:11">
       <c r="A159" s="34" t="s">
         <v>158</v>
       </c>
@@ -5050,7 +5131,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="30">
+    <row r="160" spans="1:11">
       <c r="A160" s="34" t="s">
         <v>34</v>
       </c>
@@ -5130,7 +5211,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="45">
+    <row r="164" spans="1:21" ht="30">
       <c r="A164" s="4" t="s">
         <v>131</v>
       </c>
@@ -5174,7 +5255,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="45">
+    <row r="166" spans="1:21" ht="30">
       <c r="A166" s="34" t="s">
         <v>59</v>
       </c>
@@ -5216,7 +5297,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="45">
+    <row r="168" spans="1:21" ht="30">
       <c r="A168" s="34" t="s">
         <v>107</v>
       </c>
@@ -5236,7 +5317,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="45">
+    <row r="169" spans="1:21" ht="30">
       <c r="A169" s="34" t="s">
         <v>60</v>
       </c>
@@ -5256,7 +5337,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="30">
+    <row r="170" spans="1:21">
       <c r="A170" s="34" t="s">
         <v>16</v>
       </c>
@@ -5288,7 +5369,7 @@
       <c r="T170" s="44"/>
       <c r="U170" s="43"/>
     </row>
-    <row r="171" spans="1:21" ht="30">
+    <row r="171" spans="1:21">
       <c r="A171" s="4" t="s">
         <v>132</v>
       </c>
@@ -5312,7 +5393,7 @@
       <c r="E172" s="3"/>
       <c r="K172" s="24"/>
     </row>
-    <row r="173" spans="1:21" ht="29.25" thickBot="1">
+    <row r="173" spans="1:21" ht="15.75" thickBot="1">
       <c r="A173" s="4" t="s">
         <v>141</v>
       </c>
@@ -5361,6 +5442,18 @@
       <c r="B175" s="2">
         <v>30</v>
       </c>
+      <c r="H175" t="s">
+        <v>262</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J175" t="s">
+        <v>236</v>
+      </c>
+      <c r="K175" s="23">
+        <v>77.599999999999994</v>
+      </c>
     </row>
     <row r="176" spans="1:21">
       <c r="A176" s="42" t="s">
@@ -5369,6 +5462,18 @@
       <c r="B176" s="2">
         <v>30</v>
       </c>
+      <c r="H176" t="s">
+        <v>262</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J176" t="s">
+        <v>236</v>
+      </c>
+      <c r="K176" s="23">
+        <v>77.599999999999994</v>
+      </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="42" t="s">
@@ -5615,11 +5720,11 @@
       <c r="M189" s="1"/>
       <c r="O189" s="23"/>
     </row>
-    <row r="190" spans="1:15">
-      <c r="A190" t="s">
+    <row r="190" spans="1:15" ht="30">
+      <c r="A190" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H190" s="56" t="s">
         <v>192</v>
       </c>
       <c r="J190" t="s">
@@ -5629,11 +5734,11 @@
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
-      <c r="A191" t="s">
+    <row r="191" spans="1:15" ht="45">
+      <c r="A191" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="H191" t="s">
+      <c r="H191" s="56" t="s">
         <v>199</v>
       </c>
       <c r="J191" t="s">
@@ -5643,25 +5748,25 @@
         <v>1.85E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
-      <c r="A192" t="s">
-        <v>283</v>
-      </c>
-      <c r="H192" t="s">
-        <v>192</v>
+    <row r="192" spans="1:15" ht="45">
+      <c r="A192" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="H192" s="56" t="s">
+        <v>199</v>
       </c>
       <c r="J192" t="s">
         <v>193</v>
       </c>
       <c r="K192" s="24">
-        <v>8.2799999999999992E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193" t="s">
-        <v>282</v>
-      </c>
-      <c r="H193" t="s">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="30">
+      <c r="A193" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="H193" s="56" t="s">
         <v>192</v>
       </c>
       <c r="J193" t="s">
@@ -5671,11 +5776,11 @@
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
-      <c r="A194" t="s">
-        <v>281</v>
-      </c>
-      <c r="H194" t="s">
+    <row r="194" spans="1:11" ht="30">
+      <c r="A194" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="H194" s="56" t="s">
         <v>192</v>
       </c>
       <c r="J194" t="s">
@@ -5685,35 +5790,47 @@
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
-      <c r="A195" t="s">
+    <row r="195" spans="1:11" ht="30">
+      <c r="A195" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="H195" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J195" t="s">
+        <v>193</v>
+      </c>
+      <c r="K195" s="24">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="30">
+      <c r="A196" s="56" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196" t="s">
+      <c r="H196" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="K196" s="23">
+        <v>1.3365E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="30">
+      <c r="A197" s="56" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197" t="s">
+      <c r="H197" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="K197" s="23">
+        <v>7.0099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="30">
+      <c r="A198" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="H197" t="s">
-        <v>192</v>
-      </c>
-      <c r="J197" t="s">
-        <v>193</v>
-      </c>
-      <c r="K197" s="23">
-        <v>8.2799999999999992E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198" t="s">
-        <v>277</v>
-      </c>
-      <c r="H198" t="s">
+      <c r="H198" s="56" t="s">
         <v>192</v>
       </c>
       <c r="J198" t="s">
@@ -5723,68 +5840,252 @@
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
-      <c r="A199" t="s">
-        <v>276</v>
-      </c>
-      <c r="H199" t="s">
-        <v>199</v>
+    <row r="199" spans="1:11" ht="30">
+      <c r="A199" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="H199" s="56" t="s">
+        <v>311</v>
       </c>
       <c r="J199" t="s">
         <v>193</v>
       </c>
       <c r="K199" s="23">
-        <v>1.85E-4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200" t="s">
-        <v>275</v>
-      </c>
-      <c r="H200" t="s">
-        <v>192</v>
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="30">
+      <c r="A200" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="H200" s="56" t="s">
+        <v>311</v>
       </c>
       <c r="J200" t="s">
         <v>193</v>
       </c>
       <c r="K200" s="23">
-        <v>8.2799999999999992E-3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201" t="s">
-        <v>274</v>
-      </c>
-      <c r="H201" t="s">
-        <v>192</v>
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="45">
+      <c r="A201" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="H201" s="56" t="s">
+        <v>199</v>
       </c>
       <c r="J201" t="s">
         <v>193</v>
       </c>
       <c r="K201" s="23">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="30">
+      <c r="A202" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="H202" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J202" t="s">
+        <v>193</v>
+      </c>
+      <c r="K202" s="23">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
-      <c r="A202" s="34" t="s">
+    <row r="203" spans="1:11" ht="30">
+      <c r="A203" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="H203" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J203" t="s">
+        <v>193</v>
+      </c>
+      <c r="K203" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="H202" s="45" t="s">
+      <c r="H204" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="K202" s="23">
+      <c r="K204" s="23">
         <v>7.1700000000000002E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
-      <c r="A203" s="34" t="s">
+    <row r="205" spans="1:11">
+      <c r="A205" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H205" t="s">
         <v>288</v>
       </c>
-      <c r="K203" s="23">
+      <c r="K205" s="23">
         <v>0.11509999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="30">
+      <c r="A206" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="H206" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J206" t="s">
+        <v>193</v>
+      </c>
+      <c r="K206" s="24">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="30">
+      <c r="A207" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="H207" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="K207" s="23">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="30">
+      <c r="A208" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="H208" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J208" t="s">
+        <v>193</v>
+      </c>
+      <c r="K208" s="24">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="30">
+      <c r="A209" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="H209" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J209" t="s">
+        <v>193</v>
+      </c>
+      <c r="K209" s="24">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="30">
+      <c r="A210" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="H210" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J210" t="s">
+        <v>193</v>
+      </c>
+      <c r="K210" s="24">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="30">
+      <c r="A211" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="H211" s="58" t="s">
+        <v>309</v>
+      </c>
+      <c r="K211" s="23">
+        <v>1.3365E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="30">
+      <c r="A212" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="H212" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="K212" s="23">
+        <v>7.0099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="30">
+      <c r="A213" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="H213" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J213" t="s">
+        <v>193</v>
+      </c>
+      <c r="K213" s="24">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="30">
+      <c r="A214" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="H214" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="J214" t="s">
+        <v>193</v>
+      </c>
+      <c r="K214" s="23">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="30">
+      <c r="A215" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="H215" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="K215" s="23">
+        <v>7.0099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="30">
+      <c r="A216" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="H216" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J216" t="s">
+        <v>193</v>
+      </c>
+      <c r="K216" s="24">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="30">
+      <c r="A217" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H217" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="J217" t="s">
+        <v>193</v>
+      </c>
+      <c r="K217" s="24">
+        <v>8.2799999999999992E-3</v>
       </c>
     </row>
   </sheetData>

--- a/model_lca/Inventory_mapping.xlsx
+++ b/model_lca/Inventory_mapping.xlsx
@@ -227,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="328">
   <si>
     <t xml:space="preserve">Adhesive mortar </t>
   </si>
@@ -1202,6 +1202,15 @@
   </si>
   <si>
     <t>market for heat, district or industrial, other than natural gas' (megajoule, CH, None)</t>
+  </si>
+  <si>
+    <t>Electric heat pump air water (92 kW)</t>
+  </si>
+  <si>
+    <t>market for glazing, double, U&lt;1.1 W/m2K' (square meter, GLO, None)</t>
+  </si>
+  <si>
+    <t>market for glazing, triple, U&lt;1.1 W/m2K' (square meter, GLO, None)</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1525,13 +1534,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1542,16 +1561,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1833,11 +1845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U217"/>
+  <dimension ref="A1:U218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1997,7 +2009,7 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="55" t="s">
         <v>117</v>
       </c>
       <c r="B6" s="48">
@@ -2023,7 +2035,7 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="52"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="48">
         <v>60</v>
       </c>
@@ -2293,7 +2305,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="55" t="s">
         <v>119</v>
       </c>
       <c r="B20" s="48">
@@ -2315,7 +2327,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="52"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="3"/>
       <c r="C21" s="24"/>
       <c r="E21" s="3"/>
@@ -2539,7 +2551,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="2">
@@ -2562,7 +2574,7 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="51"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="2">
         <v>60</v>
       </c>
@@ -2586,7 +2598,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="54" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="2">
@@ -2609,7 +2621,7 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="51"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2">
         <v>60</v>
       </c>
@@ -2913,7 +2925,7 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="55" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="5">
@@ -2935,7 +2947,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="52"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="5"/>
       <c r="C50" s="24"/>
       <c r="E50" s="3"/>
@@ -3175,7 +3187,7 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="54" t="s">
         <v>42</v>
       </c>
       <c r="B61" s="48">
@@ -3198,7 +3210,7 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="51"/>
+      <c r="A62" s="54"/>
       <c r="K62" s="24"/>
     </row>
     <row r="63" spans="1:12">
@@ -5496,7 +5508,7 @@
       </c>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="50" t="s">
+      <c r="A178" s="56" t="s">
         <v>255</v>
       </c>
       <c r="B178" s="2">
@@ -5522,12 +5534,12 @@
       </c>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="50"/>
+      <c r="A179" s="56"/>
       <c r="B179" s="2">
         <v>30</v>
       </c>
       <c r="H179" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>263</v>
@@ -5536,11 +5548,11 @@
         <v>236</v>
       </c>
       <c r="K179" s="24">
-        <v>66.8</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="50" t="s">
+      <c r="A180" s="56" t="s">
         <v>256</v>
       </c>
       <c r="B180" s="2">
@@ -5563,12 +5575,12 @@
       </c>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="50"/>
+      <c r="A181" s="56"/>
       <c r="B181" s="2">
         <v>30</v>
       </c>
       <c r="H181" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>263</v>
@@ -5576,8 +5588,8 @@
       <c r="J181" t="s">
         <v>236</v>
       </c>
-      <c r="K181" s="24">
-        <v>43.7</v>
+      <c r="K181" s="25">
+        <v>36.54</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -5587,7 +5599,21 @@
       <c r="B182" s="2">
         <v>30</v>
       </c>
-      <c r="K182" s="24"/>
+      <c r="H182" t="s">
+        <v>267</v>
+      </c>
+      <c r="I182" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="J182" t="s">
+        <v>269</v>
+      </c>
+      <c r="K182" s="24">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L182" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" t="s">
@@ -5599,7 +5625,7 @@
       <c r="K183" s="24"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="50" t="s">
+      <c r="A184" s="56" t="s">
         <v>259</v>
       </c>
       <c r="B184" s="2">
@@ -5622,7 +5648,7 @@
       </c>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="50"/>
+      <c r="A185" s="56"/>
       <c r="B185" s="2">
         <v>30</v>
       </c>
@@ -5640,7 +5666,7 @@
       </c>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="50" t="s">
+      <c r="A186" s="56" t="s">
         <v>260</v>
       </c>
       <c r="B186" s="7">
@@ -5663,7 +5689,7 @@
       </c>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="50"/>
+      <c r="A187" s="56"/>
       <c r="B187" s="7">
         <v>30</v>
       </c>
@@ -5721,10 +5747,10 @@
       <c r="O189" s="23"/>
     </row>
     <row r="190" spans="1:15" ht="30">
-      <c r="A190" s="56" t="s">
+      <c r="A190" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="H190" s="56" t="s">
+      <c r="H190" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J190" t="s">
@@ -5735,10 +5761,10 @@
       </c>
     </row>
     <row r="191" spans="1:15" ht="45">
-      <c r="A191" s="56" t="s">
+      <c r="A191" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="H191" s="56" t="s">
+      <c r="H191" s="50" t="s">
         <v>199</v>
       </c>
       <c r="J191" t="s">
@@ -5749,10 +5775,10 @@
       </c>
     </row>
     <row r="192" spans="1:15" ht="45">
-      <c r="A192" s="59" t="s">
+      <c r="A192" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="H192" s="56" t="s">
+      <c r="H192" s="50" t="s">
         <v>199</v>
       </c>
       <c r="J192" t="s">
@@ -5763,10 +5789,10 @@
       </c>
     </row>
     <row r="193" spans="1:11" ht="30">
-      <c r="A193" s="56" t="s">
+      <c r="A193" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="H193" s="56" t="s">
+      <c r="H193" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J193" t="s">
@@ -5777,10 +5803,10 @@
       </c>
     </row>
     <row r="194" spans="1:11" ht="30">
-      <c r="A194" s="56" t="s">
+      <c r="A194" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="H194" s="56" t="s">
+      <c r="H194" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J194" t="s">
@@ -5791,10 +5817,10 @@
       </c>
     </row>
     <row r="195" spans="1:11" ht="30">
-      <c r="A195" s="56" t="s">
+      <c r="A195" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="H195" s="56" t="s">
+      <c r="H195" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J195" t="s">
@@ -5805,10 +5831,10 @@
       </c>
     </row>
     <row r="196" spans="1:11" ht="30">
-      <c r="A196" s="56" t="s">
+      <c r="A196" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="H196" s="58" t="s">
+      <c r="H196" s="52" t="s">
         <v>309</v>
       </c>
       <c r="K196" s="23">
@@ -5816,10 +5842,10 @@
       </c>
     </row>
     <row r="197" spans="1:11" ht="30">
-      <c r="A197" s="56" t="s">
+      <c r="A197" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="H197" s="56" t="s">
+      <c r="H197" s="50" t="s">
         <v>308</v>
       </c>
       <c r="K197" s="23">
@@ -5827,10 +5853,10 @@
       </c>
     </row>
     <row r="198" spans="1:11" ht="30">
-      <c r="A198" s="56" t="s">
+      <c r="A198" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="H198" s="56" t="s">
+      <c r="H198" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J198" t="s">
@@ -5841,10 +5867,10 @@
       </c>
     </row>
     <row r="199" spans="1:11" ht="30">
-      <c r="A199" s="57" t="s">
+      <c r="A199" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="H199" s="56" t="s">
+      <c r="H199" s="50" t="s">
         <v>311</v>
       </c>
       <c r="J199" t="s">
@@ -5855,10 +5881,10 @@
       </c>
     </row>
     <row r="200" spans="1:11" ht="30">
-      <c r="A200" s="56" t="s">
+      <c r="A200" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="H200" s="56" t="s">
+      <c r="H200" s="50" t="s">
         <v>311</v>
       </c>
       <c r="J200" t="s">
@@ -5869,10 +5895,10 @@
       </c>
     </row>
     <row r="201" spans="1:11" ht="45">
-      <c r="A201" s="56" t="s">
+      <c r="A201" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="H201" s="56" t="s">
+      <c r="H201" s="50" t="s">
         <v>199</v>
       </c>
       <c r="J201" t="s">
@@ -5883,10 +5909,10 @@
       </c>
     </row>
     <row r="202" spans="1:11" ht="30">
-      <c r="A202" s="56" t="s">
+      <c r="A202" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="H202" s="56" t="s">
+      <c r="H202" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J202" t="s">
@@ -5897,10 +5923,10 @@
       </c>
     </row>
     <row r="203" spans="1:11" ht="30">
-      <c r="A203" s="56" t="s">
+      <c r="A203" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="H203" s="56" t="s">
+      <c r="H203" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J203" t="s">
@@ -5936,7 +5962,7 @@
       <c r="A206" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="H206" s="56" t="s">
+      <c r="H206" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J206" t="s">
@@ -5950,7 +5976,7 @@
       <c r="A207" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="H207" s="58" t="s">
+      <c r="H207" s="52" t="s">
         <v>324</v>
       </c>
       <c r="K207" s="23">
@@ -5961,7 +5987,7 @@
       <c r="A208" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="H208" s="56" t="s">
+      <c r="H208" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J208" t="s">
@@ -5975,7 +6001,7 @@
       <c r="A209" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="H209" s="56" t="s">
+      <c r="H209" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J209" t="s">
@@ -5989,7 +6015,7 @@
       <c r="A210" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="H210" s="56" t="s">
+      <c r="H210" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J210" t="s">
@@ -6003,7 +6029,7 @@
       <c r="A211" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="H211" s="58" t="s">
+      <c r="H211" s="52" t="s">
         <v>309</v>
       </c>
       <c r="K211" s="23">
@@ -6014,7 +6040,7 @@
       <c r="A212" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="H212" s="56" t="s">
+      <c r="H212" s="50" t="s">
         <v>308</v>
       </c>
       <c r="K212" s="23">
@@ -6025,7 +6051,7 @@
       <c r="A213" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="H213" s="56" t="s">
+      <c r="H213" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J213" t="s">
@@ -6039,7 +6065,7 @@
       <c r="A214" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="H214" s="56" t="s">
+      <c r="H214" s="50" t="s">
         <v>311</v>
       </c>
       <c r="J214" t="s">
@@ -6050,41 +6076,55 @@
       </c>
     </row>
     <row r="215" spans="1:11" ht="30">
-      <c r="A215" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="H215" s="56" t="s">
-        <v>308</v>
+      <c r="A215" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="H215" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="J215" t="s">
+        <v>193</v>
       </c>
       <c r="K215" s="23">
-        <v>7.0099999999999996E-2</v>
+        <v>1.14E-2</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="30">
       <c r="A216" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="H216" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="J216" t="s">
-        <v>193</v>
-      </c>
-      <c r="K216" s="24">
-        <v>8.2799999999999992E-3</v>
+        <v>276</v>
+      </c>
+      <c r="H216" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="K216" s="23">
+        <v>7.0099999999999996E-2</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="30">
       <c r="A217" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="H217" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="H217" s="50" t="s">
         <v>192</v>
       </c>
       <c r="J217" t="s">
         <v>193</v>
       </c>
       <c r="K217" s="24">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="30">
+      <c r="A218" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="H218" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="J218" t="s">
+        <v>193</v>
+      </c>
+      <c r="K218" s="24">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
@@ -6093,16 +6133,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A61:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6132,19 +6172,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="8" t="s">

--- a/model_lca/Inventory_mapping.xlsx
+++ b/model_lca/Inventory_mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Component wise inventories" sheetId="1" r:id="rId1"/>
@@ -1283,18 +1283,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1460,16 +1454,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1486,70 +1475,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1561,7 +1497,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1847,97 +1825,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="29" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.54296875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="21" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="30" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="30" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="31" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="48.54296875" style="30" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" style="30" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="34.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="22" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="48">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B2" s="4">
+        <v>60</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>470</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="20">
         <v>0.48499999999999999</v>
       </c>
-      <c r="L2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="24" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="3">
         <v>60</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="20"/>
       <c r="E3" s="3"/>
       <c r="H3" s="3" t="s">
         <v>206</v>
@@ -1948,23 +1927,23 @@
       <c r="J3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="20">
         <v>0.52300000000000002</v>
       </c>
-      <c r="L3" s="31"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4">
-        <v>60</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="24">
+        <v>60</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="E4" s="24"/>
       <c r="H4" s="3" t="s">
         <v>206</v>
       </c>
@@ -1974,24 +1953,24 @@
       <c r="J4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="20">
         <v>0.52300000000000002</v>
       </c>
-      <c r="L4" s="31"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>60</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="20"/>
       <c r="E5" s="3"/>
-      <c r="H5" t="s">
+      <c r="H5" s="30" t="s">
         <v>206</v>
       </c>
       <c r="I5" s="3">
@@ -2000,24 +1979,24 @@
       <c r="J5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="20">
         <v>0.52300000000000002</v>
       </c>
-      <c r="L5" s="31"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="48">
-        <v>60</v>
-      </c>
-      <c r="C6" s="24"/>
+      <c r="B6" s="4">
+        <v>60</v>
+      </c>
+      <c r="C6" s="20"/>
       <c r="E6" s="3"/>
-      <c r="H6" t="s">
+      <c r="H6" s="30" t="s">
         <v>197</v>
       </c>
       <c r="I6" s="3">
@@ -2026,22 +2005,22 @@
       <c r="J6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="20">
         <v>0.48499999999999999</v>
       </c>
-      <c r="L6" s="31"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="55"/>
-      <c r="B7" s="48">
-        <v>60</v>
-      </c>
-      <c r="C7" s="24"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="4">
+        <v>60</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="E7" s="3"/>
-      <c r="H7" t="s">
+      <c r="H7" s="30" t="s">
         <v>226</v>
       </c>
       <c r="I7" s="3">
@@ -2050,22 +2029,22 @@
       <c r="J7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="20">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L7" s="31"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="48">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="B8" s="4">
+        <v>60</v>
+      </c>
+      <c r="H8" s="30" t="s">
         <v>233</v>
       </c>
       <c r="I8" s="3">
@@ -2074,39 +2053,39 @@
       <c r="J8" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>0.75800000000000001</v>
       </c>
-      <c r="L8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="20"/>
       <c r="E9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="31"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="48">
-        <v>60</v>
-      </c>
-      <c r="C10" s="24"/>
+      <c r="B10" s="4">
+        <v>60</v>
+      </c>
+      <c r="C10" s="20"/>
       <c r="E10" s="3"/>
-      <c r="H10" t="s">
+      <c r="H10" s="30" t="s">
         <v>234</v>
       </c>
       <c r="I10" s="3">
@@ -2115,22 +2094,22 @@
       <c r="J10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="20">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="L10" s="31"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="48">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="B11" s="4">
+        <v>60</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>292</v>
       </c>
       <c r="I11" s="3">
@@ -2139,1645 +2118,1643 @@
       <c r="J11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="21">
         <v>2.3E-2</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="48">
-        <v>60</v>
-      </c>
-      <c r="H12" s="38" t="s">
+      <c r="B12" s="4">
+        <v>60</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="35">
         <v>0.25</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="21">
         <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="20">
         <v>1160</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="35">
         <v>1000</v>
       </c>
-      <c r="J13" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="41">
+      <c r="J13" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="20">
         <v>3.06</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="3">
         <v>30</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="35">
         <v>1000</v>
       </c>
-      <c r="J14" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="41">
+      <c r="J14" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="20">
         <v>3.06</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="3">
         <v>30</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="35">
         <v>1000</v>
       </c>
-      <c r="J15" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="41">
+      <c r="J15" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="20">
         <v>3.06</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="24"/>
+      <c r="C16" s="20"/>
       <c r="E16" s="3"/>
-      <c r="K16" s="24"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="48">
-        <v>60</v>
-      </c>
-      <c r="C17" s="24"/>
+      <c r="B17" s="4">
+        <v>60</v>
+      </c>
+      <c r="C17" s="20"/>
       <c r="E17" s="3"/>
-      <c r="H17" t="s">
+      <c r="H17" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="35">
         <v>900</v>
       </c>
-      <c r="J17" t="s">
-        <v>171</v>
-      </c>
-      <c r="K17" s="24">
+      <c r="J17" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="20">
         <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="48">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="B18" s="4">
+        <v>60</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="35">
         <v>2300</v>
       </c>
-      <c r="J18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K18" s="24">
+      <c r="J18" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="20">
         <v>0.217</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="48">
-        <v>60</v>
-      </c>
-      <c r="C19" s="24"/>
+      <c r="B19" s="4">
+        <v>60</v>
+      </c>
+      <c r="C19" s="20"/>
       <c r="E19" s="3"/>
-      <c r="H19" t="s">
+      <c r="H19" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="J19" t="s">
-        <v>171</v>
-      </c>
-      <c r="K19" s="24">
+      <c r="J19" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="20">
         <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="48">
-        <v>60</v>
-      </c>
-      <c r="C20" s="24"/>
+      <c r="B20" s="4">
+        <v>60</v>
+      </c>
+      <c r="C20" s="20"/>
       <c r="E20" s="3"/>
-      <c r="H20" t="s">
+      <c r="H20" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="J20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="24">
+      <c r="J20" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="20">
         <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="55"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="20"/>
       <c r="E21" s="3"/>
-      <c r="K21" s="24"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="2">
-        <v>30</v>
-      </c>
-      <c r="C22" s="23">
+      <c r="B22" s="4">
+        <v>30</v>
+      </c>
+      <c r="C22" s="21">
         <v>1850</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="35">
         <v>1850</v>
       </c>
-      <c r="J22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="24">
+      <c r="J22" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="20">
         <v>0.125</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2">
-        <v>30</v>
-      </c>
-      <c r="C23" s="23">
+      <c r="B23" s="4">
+        <v>30</v>
+      </c>
+      <c r="C23" s="21">
         <v>1850</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="35">
         <v>1850</v>
       </c>
-      <c r="J23" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" s="24">
+      <c r="J23" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="20">
         <v>0.125</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="2">
-        <v>30</v>
-      </c>
-      <c r="C24" s="23">
+      <c r="B24" s="4">
+        <v>30</v>
+      </c>
+      <c r="C24" s="21">
         <v>1550</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="H24" t="s">
+      <c r="H24" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="35">
         <v>1550</v>
       </c>
-      <c r="J24" t="s">
-        <v>171</v>
-      </c>
-      <c r="K24" s="24">
+      <c r="J24" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="20">
         <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="2">
-        <v>30</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="H25" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="35">
         <v>2600</v>
       </c>
-      <c r="J25" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="24">
+      <c r="J25" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="20">
         <v>0.77700000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2">
-        <v>30</v>
-      </c>
-      <c r="C26" s="23">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="B26" s="4">
+        <v>30</v>
+      </c>
+      <c r="C26" s="21">
+        <v>30</v>
+      </c>
+      <c r="H26" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="35">
         <v>485</v>
       </c>
-      <c r="J26" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="24">
+      <c r="J26" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="20">
         <v>0.125</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="48">
-        <v>60</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="E27" s="5"/>
-      <c r="H27" t="s">
+      <c r="B27" s="4">
+        <v>60</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="E27" s="3"/>
+      <c r="H27" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="35">
         <v>1700</v>
       </c>
-      <c r="J27" t="s">
-        <v>171</v>
-      </c>
-      <c r="K27" s="24">
+      <c r="J27" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="20">
         <v>0.375</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="48">
-        <v>60</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="B28" s="4">
+        <v>60</v>
+      </c>
+      <c r="H28" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="1">
-        <v>30</v>
-      </c>
-      <c r="J28" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" s="24">
+      <c r="I28" s="35">
+        <v>30</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="20">
         <v>14.5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="48">
-        <v>60</v>
-      </c>
-      <c r="C29" s="24"/>
+      <c r="B29" s="4">
+        <v>60</v>
+      </c>
+      <c r="C29" s="20"/>
       <c r="E29" s="3"/>
-      <c r="H29" t="s">
+      <c r="H29" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="35">
         <v>2150</v>
       </c>
-      <c r="J29" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="24">
+      <c r="J29" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="20">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="48">
-        <v>60</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="B30" s="4">
+        <v>60</v>
+      </c>
+      <c r="H30" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="35">
         <v>2300</v>
       </c>
-      <c r="J30" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="24">
+      <c r="J30" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="20">
         <v>0.217</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="48">
-        <v>60</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="B31" s="4">
+        <v>60</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="35">
         <v>2150</v>
       </c>
-      <c r="J31" t="s">
-        <v>171</v>
-      </c>
-      <c r="K31" s="24">
+      <c r="J31" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="20">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
-        <v>60</v>
-      </c>
-      <c r="C32" s="23">
+      <c r="B32" s="4">
+        <v>60</v>
+      </c>
+      <c r="C32" s="21">
         <v>2380</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="35">
         <v>2350</v>
       </c>
-      <c r="J32" t="s">
-        <v>171</v>
-      </c>
-      <c r="K32" s="24">
+      <c r="J32" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" s="20">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="54"/>
-      <c r="B33" s="2">
-        <v>60</v>
-      </c>
-      <c r="C33" s="23">
+      <c r="A33" s="36"/>
+      <c r="B33" s="4">
+        <v>60</v>
+      </c>
+      <c r="C33" s="21">
         <v>80</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="35">
         <v>80</v>
       </c>
-      <c r="J33" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" s="24">
+      <c r="J33" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="20">
         <v>0.68200000000000005</v>
       </c>
-      <c r="L33" s="32" t="s">
+      <c r="L33" s="22" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="2">
-        <v>60</v>
-      </c>
-      <c r="C34" s="23">
+      <c r="B34" s="4">
+        <v>60</v>
+      </c>
+      <c r="C34" s="21">
         <v>2380</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="35">
         <v>2350</v>
       </c>
-      <c r="J34" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="24">
+      <c r="J34" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="20">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="54"/>
-      <c r="B35" s="2">
-        <v>60</v>
-      </c>
-      <c r="C35" s="23">
+      <c r="A35" s="36"/>
+      <c r="B35" s="4">
+        <v>60</v>
+      </c>
+      <c r="C35" s="21">
         <v>80</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="35">
         <v>80</v>
       </c>
-      <c r="J35" t="s">
-        <v>171</v>
-      </c>
-      <c r="K35" s="24">
+      <c r="J35" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="20">
         <v>0.68200000000000005</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="22" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="2">
-        <v>60</v>
-      </c>
-      <c r="C36" s="23">
+      <c r="B36" s="4">
+        <v>60</v>
+      </c>
+      <c r="C36" s="21">
         <v>2380</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="35">
         <v>2350</v>
       </c>
-      <c r="J36" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="24">
+      <c r="J36" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="20">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="4"/>
-      <c r="B37" s="2">
-        <v>60</v>
-      </c>
-      <c r="C37" s="23">
+      <c r="A37" s="24"/>
+      <c r="B37" s="4">
+        <v>60</v>
+      </c>
+      <c r="C37" s="21">
         <v>80</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="35">
         <v>80</v>
       </c>
-      <c r="J37" t="s">
-        <v>171</v>
-      </c>
-      <c r="K37" s="24">
+      <c r="J37" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="20">
         <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="2">
-        <v>60</v>
-      </c>
-      <c r="C38" s="23">
+      <c r="B38" s="4">
+        <v>60</v>
+      </c>
+      <c r="C38" s="21">
         <v>2380</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="35">
         <v>2350</v>
       </c>
-      <c r="J38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="24">
+      <c r="J38" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="20">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="B39" s="2">
-        <v>60</v>
-      </c>
-      <c r="C39" s="23">
+      <c r="B39" s="4">
+        <v>60</v>
+      </c>
+      <c r="C39" s="21">
         <v>80</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="35">
         <v>80</v>
       </c>
-      <c r="J39" t="s">
-        <v>171</v>
-      </c>
-      <c r="K39" s="24">
+      <c r="J39" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="20">
         <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="2">
-        <v>60</v>
-      </c>
-      <c r="C40" s="23">
+      <c r="B40" s="4">
+        <v>60</v>
+      </c>
+      <c r="C40" s="21">
         <v>2380</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="35">
         <v>2350</v>
       </c>
-      <c r="J40" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" s="24">
+      <c r="J40" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="20">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="B41" s="2">
-        <v>60</v>
-      </c>
-      <c r="C41" s="23">
+      <c r="B41" s="4">
+        <v>60</v>
+      </c>
+      <c r="C41" s="21">
         <v>80</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="35">
         <v>80</v>
       </c>
-      <c r="J41" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="24">
+      <c r="J41" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="20">
         <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="5">
-        <v>30</v>
-      </c>
-      <c r="C42" s="24">
+      <c r="B42" s="3">
+        <v>30</v>
+      </c>
+      <c r="C42" s="20">
         <v>2190</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="H42" t="s">
+      <c r="H42" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="35">
         <v>2150</v>
       </c>
-      <c r="J42" t="s">
-        <v>171</v>
-      </c>
-      <c r="K42" s="24">
+      <c r="J42" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="20">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="48">
-        <v>60</v>
-      </c>
-      <c r="C43" s="24"/>
+      <c r="B43" s="4">
+        <v>60</v>
+      </c>
+      <c r="C43" s="20"/>
       <c r="E43" s="3"/>
-      <c r="H43" t="s">
+      <c r="H43" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="35">
         <v>470</v>
       </c>
-      <c r="J43" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="24">
+      <c r="J43" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K43" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="2">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="B44" s="4">
+        <v>30</v>
+      </c>
+      <c r="H44" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="35">
         <v>15</v>
       </c>
-      <c r="J44" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="24">
+      <c r="J44" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="20">
         <v>7.64</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="2">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="B45" s="4">
+        <v>30</v>
+      </c>
+      <c r="H45" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="I45" s="1">
-        <v>30</v>
-      </c>
-      <c r="J45" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="24">
+      <c r="I45" s="35">
+        <v>30</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="20">
         <v>7.64</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="24" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="3">
         <v>30</v>
       </c>
-      <c r="C46" s="24"/>
+      <c r="C46" s="20"/>
       <c r="E46" s="3"/>
-      <c r="H46" t="s">
+      <c r="H46" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="35">
         <v>35</v>
       </c>
-      <c r="J46" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="24">
+      <c r="J46" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="20">
         <v>7.64</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="5">
-        <v>30</v>
-      </c>
-      <c r="C47" s="24"/>
+      <c r="B47" s="3">
+        <v>30</v>
+      </c>
+      <c r="C47" s="20"/>
       <c r="E47" s="3"/>
-      <c r="H47" t="s">
+      <c r="H47" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="I47" s="1">
-        <v>30</v>
-      </c>
-      <c r="J47" t="s">
-        <v>171</v>
-      </c>
-      <c r="K47" s="24">
+      <c r="I47" s="35">
+        <v>30</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K47" s="20">
         <v>14.5</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="5">
-        <v>30</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="B48" s="3">
+        <v>30</v>
+      </c>
+      <c r="H48" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="35">
         <v>35</v>
       </c>
-      <c r="J48" t="s">
-        <v>171</v>
-      </c>
-      <c r="K48" s="24">
+      <c r="J48" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" s="20">
         <v>14.5</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="5">
-        <v>30</v>
-      </c>
-      <c r="C49" s="24"/>
+      <c r="B49" s="3">
+        <v>30</v>
+      </c>
+      <c r="C49" s="20"/>
       <c r="E49" s="3"/>
-      <c r="H49" t="s">
+      <c r="H49" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="35">
         <v>685</v>
       </c>
-      <c r="J49" t="s">
-        <v>171</v>
-      </c>
-      <c r="K49" s="24">
+      <c r="J49" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K49" s="20">
         <v>1.04</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="55"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="20"/>
       <c r="E50" s="3"/>
-      <c r="H50" t="s">
+      <c r="H50" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I50" s="1">
-        <v>60</v>
-      </c>
-      <c r="J50" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="24">
+      <c r="I50" s="35">
+        <v>60</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="5">
-        <v>30</v>
-      </c>
-      <c r="C51" s="24"/>
+      <c r="B51" s="3">
+        <v>30</v>
+      </c>
+      <c r="C51" s="20"/>
       <c r="E51" s="3"/>
-      <c r="H51" t="s">
+      <c r="H51" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="35">
         <v>910</v>
       </c>
-      <c r="J51" t="s">
-        <v>171</v>
-      </c>
-      <c r="K51" s="24">
+      <c r="J51" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="20">
         <v>5.43</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="5">
-        <v>30</v>
-      </c>
-      <c r="C52" s="24"/>
+      <c r="B52" s="3">
+        <v>30</v>
+      </c>
+      <c r="C52" s="20"/>
       <c r="E52" s="3"/>
-      <c r="H52" t="s">
+      <c r="H52" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="35">
         <v>685</v>
       </c>
-      <c r="J52" t="s">
-        <v>171</v>
-      </c>
-      <c r="K52" s="24">
+      <c r="J52" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="20">
         <v>1.04</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="5">
-        <v>30</v>
-      </c>
-      <c r="C53" s="24"/>
+      <c r="B53" s="3">
+        <v>30</v>
+      </c>
+      <c r="C53" s="20"/>
       <c r="E53" s="3"/>
-      <c r="H53" t="s">
+      <c r="H53" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="35">
         <v>685</v>
       </c>
-      <c r="J53" t="s">
-        <v>171</v>
-      </c>
-      <c r="K53" s="24">
+      <c r="J53" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K53" s="20">
         <v>1.04</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="5">
-        <v>30</v>
-      </c>
-      <c r="C54" s="24"/>
+      <c r="B54" s="3">
+        <v>30</v>
+      </c>
+      <c r="C54" s="20"/>
       <c r="E54" s="3"/>
-      <c r="H54" t="s">
+      <c r="H54" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="35">
         <v>685</v>
       </c>
-      <c r="J54" t="s">
-        <v>171</v>
-      </c>
-      <c r="K54" s="24">
+      <c r="J54" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="20">
         <v>1.04</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="5">
-        <v>30</v>
-      </c>
-      <c r="C55" s="24"/>
+      <c r="B55" s="3">
+        <v>30</v>
+      </c>
+      <c r="C55" s="20"/>
       <c r="E55" s="3"/>
-      <c r="H55" t="s">
+      <c r="H55" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="35">
         <v>685</v>
       </c>
-      <c r="J55" t="s">
-        <v>171</v>
-      </c>
-      <c r="K55" s="24">
+      <c r="J55" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K55" s="20">
         <v>1.04</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="5">
-        <v>30</v>
-      </c>
-      <c r="C56" s="24"/>
+      <c r="B56" s="3">
+        <v>30</v>
+      </c>
+      <c r="C56" s="20"/>
       <c r="E56" s="3"/>
-      <c r="H56" t="s">
+      <c r="H56" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="35">
         <v>685</v>
       </c>
-      <c r="J56" t="s">
-        <v>171</v>
-      </c>
-      <c r="K56" s="24">
+      <c r="J56" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" s="20">
         <v>1.04</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="48">
-        <v>60</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="B57" s="4">
+        <v>60</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="35">
         <v>1700</v>
       </c>
-      <c r="J57" t="s">
-        <v>171</v>
-      </c>
-      <c r="K57" s="24">
+      <c r="J57" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K57" s="20">
         <v>0.129</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75">
-      <c r="A58" s="36" t="s">
+    <row r="58" spans="1:12" ht="15.5">
+      <c r="A58" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="48">
-        <v>60</v>
-      </c>
-      <c r="C58" s="27"/>
-      <c r="E58" s="6"/>
-      <c r="H58" t="s">
+      <c r="B58" s="4">
+        <v>60</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="H58" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="35">
         <v>1700</v>
       </c>
-      <c r="J58" t="s">
-        <v>171</v>
-      </c>
-      <c r="K58" s="24">
+      <c r="J58" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K58" s="20">
         <v>0.129</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="48">
-        <v>60</v>
-      </c>
-      <c r="C59" s="24"/>
+      <c r="B59" s="4">
+        <v>60</v>
+      </c>
+      <c r="C59" s="20"/>
       <c r="E59" s="3"/>
-      <c r="H59" t="s">
+      <c r="H59" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="35">
         <v>500</v>
       </c>
-      <c r="J59" t="s">
-        <v>171</v>
-      </c>
-      <c r="K59" s="24">
+      <c r="J59" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="20">
         <v>0.17</v>
       </c>
-      <c r="L59" s="32" t="s">
+      <c r="L59" s="22" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="48">
-        <v>60</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="B60" s="4">
+        <v>60</v>
+      </c>
+      <c r="H60" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="35">
         <v>500</v>
       </c>
-      <c r="J60" t="s">
-        <v>171</v>
-      </c>
-      <c r="K60" s="24">
+      <c r="J60" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K60" s="20">
         <v>0.17</v>
       </c>
-      <c r="L60" s="32" t="s">
+      <c r="L60" s="22" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="48">
-        <v>60</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="B61" s="4">
+        <v>60</v>
+      </c>
+      <c r="H61" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="35">
         <v>500</v>
       </c>
-      <c r="J61" t="s">
-        <v>171</v>
-      </c>
-      <c r="K61" s="24">
+      <c r="J61" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K61" s="20">
         <v>0.17</v>
       </c>
-      <c r="L61" s="32" t="s">
+      <c r="L61" s="22" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="54"/>
-      <c r="K62" s="24"/>
+      <c r="A62" s="36"/>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="48">
-        <v>60</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="B63" s="4">
+        <v>60</v>
+      </c>
+      <c r="H63" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I63" s="1">
-        <v>30</v>
-      </c>
-      <c r="J63" t="s">
-        <v>171</v>
-      </c>
-      <c r="K63" s="24">
+      <c r="I63" s="35">
+        <v>30</v>
+      </c>
+      <c r="J63" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" s="20">
         <v>7.52</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="48">
-        <v>60</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="B64" s="4">
+        <v>60</v>
+      </c>
+      <c r="H64" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="J64" t="s">
-        <v>171</v>
-      </c>
-      <c r="K64" s="24">
+      <c r="J64" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="20">
         <v>1.17</v>
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="34" t="s">
+      <c r="A65" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="48">
-        <v>60</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="B65" s="4">
+        <v>60</v>
+      </c>
+      <c r="H65" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="35">
         <v>7850</v>
       </c>
-      <c r="J65" t="s">
-        <v>171</v>
-      </c>
-      <c r="K65" s="24">
+      <c r="J65" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="20">
         <v>3.51</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="48">
-        <v>60</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="E66" s="7"/>
-      <c r="H66" t="s">
+      <c r="B66" s="4">
+        <v>60</v>
+      </c>
+      <c r="H66" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="35">
         <v>50</v>
       </c>
-      <c r="J66" t="s">
-        <v>171</v>
-      </c>
-      <c r="K66" s="24">
+      <c r="J66" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="34" t="s">
+      <c r="A67" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="48">
-        <v>60</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="B67" s="4">
+        <v>60</v>
+      </c>
+      <c r="H67" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="I67" s="1">
-        <v>30</v>
-      </c>
-      <c r="J67" t="s">
-        <v>171</v>
-      </c>
-      <c r="K67" s="24">
+      <c r="I67" s="35">
+        <v>30</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="30">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:12" ht="29">
+      <c r="A68" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B68" s="3">
         <v>30</v>
       </c>
-      <c r="C68" s="24"/>
+      <c r="C68" s="20"/>
       <c r="E68" s="3"/>
-      <c r="H68" t="s">
+      <c r="H68" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="35">
         <v>470</v>
       </c>
-      <c r="J68" t="s">
-        <v>171</v>
-      </c>
-      <c r="K68" s="24">
+      <c r="J68" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K68" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="24" t="s">
         <v>149</v>
       </c>
       <c r="B69" s="3"/>
-      <c r="C69" s="24"/>
+      <c r="C69" s="20"/>
       <c r="E69" s="3"/>
-      <c r="K69" s="24"/>
-    </row>
-    <row r="70" spans="1:12" ht="30">
-      <c r="A70" s="34" t="s">
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:12" ht="29">
+      <c r="A70" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="48">
-        <v>60</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="B70" s="4">
+        <v>60</v>
+      </c>
+      <c r="H70" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="35">
         <f>40.5/0.015</f>
         <v>2700</v>
       </c>
-      <c r="J70" t="s">
-        <v>171</v>
-      </c>
-      <c r="K70" s="24">
+      <c r="J70" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K70" s="20">
         <f>16.2/40.5</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="L70" s="32" t="s">
+      <c r="L70" s="22" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="48">
-        <v>60</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="B71" s="4">
+        <v>60</v>
+      </c>
+      <c r="H71" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="35">
         <v>2000</v>
       </c>
-      <c r="J71" t="s">
-        <v>171</v>
-      </c>
-      <c r="K71" s="24">
+      <c r="J71" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K71" s="20">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="K72" s="24"/>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="48">
-        <v>60</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="B73" s="4">
+        <v>60</v>
+      </c>
+      <c r="H73" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="35">
         <v>1200</v>
       </c>
-      <c r="J73" t="s">
-        <v>171</v>
-      </c>
-      <c r="K73" s="24">
+      <c r="J73" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K73" s="20">
         <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="48">
-        <v>60</v>
-      </c>
-      <c r="C74" s="24"/>
+      <c r="B74" s="4">
+        <v>60</v>
+      </c>
+      <c r="C74" s="20"/>
       <c r="E74" s="3"/>
-      <c r="H74" t="s">
+      <c r="H74" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="35">
         <v>1200</v>
       </c>
-      <c r="J74" t="s">
-        <v>171</v>
-      </c>
-      <c r="K74" s="24">
+      <c r="J74" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K74" s="20">
         <v>0.53700000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="2">
-        <v>30</v>
-      </c>
-      <c r="C75" s="23">
+      <c r="B75" s="4">
+        <v>30</v>
+      </c>
+      <c r="C75" s="21">
         <v>850</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="35">
         <v>925</v>
       </c>
-      <c r="J75" t="s">
-        <v>171</v>
-      </c>
-      <c r="K75" s="24">
+      <c r="J75" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K75" s="20">
         <v>0.155</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="2">
-        <v>30</v>
-      </c>
-      <c r="C76" s="23">
+      <c r="B76" s="4">
+        <v>30</v>
+      </c>
+      <c r="C76" s="21">
         <v>850</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="35">
         <v>925</v>
       </c>
-      <c r="J76" t="s">
-        <v>171</v>
-      </c>
-      <c r="K76" s="24">
+      <c r="J76" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K76" s="20">
         <v>0.155</v>
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="2">
-        <v>30</v>
-      </c>
-      <c r="C77" s="23">
+      <c r="B77" s="4">
+        <v>30</v>
+      </c>
+      <c r="C77" s="21">
         <v>850</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="35">
         <v>925</v>
       </c>
-      <c r="J77" t="s">
-        <v>171</v>
-      </c>
-      <c r="K77" s="24">
+      <c r="J77" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K77" s="20">
         <v>0.155</v>
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="2">
-        <v>30</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="B78" s="4">
+        <v>30</v>
+      </c>
+      <c r="H78" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="35">
         <v>1100</v>
       </c>
-      <c r="J78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K78" s="24">
+      <c r="J78" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K78" s="20">
         <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B79" s="5">
-        <v>30</v>
-      </c>
-      <c r="C79" s="24"/>
+      <c r="B79" s="3">
+        <v>30</v>
+      </c>
+      <c r="C79" s="20"/>
       <c r="E79" s="3"/>
-      <c r="H79" t="s">
+      <c r="H79" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="35">
         <v>685</v>
       </c>
-      <c r="J79" t="s">
-        <v>171</v>
-      </c>
-      <c r="K79" s="24">
+      <c r="J79" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K79" s="20">
         <v>1.04</v>
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="5">
-        <v>30</v>
-      </c>
-      <c r="C80" s="24"/>
+      <c r="B80" s="3">
+        <v>30</v>
+      </c>
+      <c r="C80" s="20"/>
       <c r="E80" s="3"/>
-      <c r="H80" t="s">
+      <c r="H80" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="35">
         <v>685</v>
       </c>
-      <c r="J80" t="s">
-        <v>171</v>
-      </c>
-      <c r="K80" s="24">
+      <c r="J80" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K80" s="20">
         <v>1.04</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75">
-      <c r="A81" s="36" t="s">
+    <row r="81" spans="1:12" ht="15.5">
+      <c r="A81" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="48">
-        <v>60</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="E81" s="6"/>
-      <c r="H81" t="s">
+      <c r="B81" s="4">
+        <v>60</v>
+      </c>
+      <c r="C81" s="38"/>
+      <c r="E81" s="39"/>
+      <c r="H81" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="I81" s="1">
-        <v>30</v>
-      </c>
-      <c r="J81" t="s">
-        <v>171</v>
-      </c>
-      <c r="K81" s="24">
+      <c r="I81" s="35">
+        <v>30</v>
+      </c>
+      <c r="J81" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K81" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="34" t="s">
+      <c r="A82" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="2">
-        <v>60</v>
-      </c>
-      <c r="C82" s="23">
+      <c r="B82" s="4">
+        <v>60</v>
+      </c>
+      <c r="C82" s="21">
         <v>225</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="35">
         <v>150</v>
       </c>
-      <c r="J82" t="s">
-        <v>171</v>
-      </c>
-      <c r="K82" s="24">
+      <c r="J82" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K82" s="20">
         <v>0.155</v>
       </c>
-      <c r="L82" s="33" t="s">
+      <c r="L82" s="23" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B83" s="3">
         <v>30</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="20">
         <v>30</v>
       </c>
       <c r="E83" s="3"/>
-      <c r="H83" t="s">
+      <c r="H83" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="I83" s="1">
-        <v>30</v>
-      </c>
-      <c r="J83" t="s">
-        <v>171</v>
-      </c>
-      <c r="K83" s="24">
+      <c r="I83" s="35">
+        <v>30</v>
+      </c>
+      <c r="J83" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K83" s="20">
         <v>7.52</v>
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="24"/>
+      <c r="C84" s="20"/>
       <c r="E84" s="3"/>
-      <c r="K84" s="24"/>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B85" s="48">
-        <v>60</v>
-      </c>
-      <c r="C85" s="26"/>
-      <c r="E85" s="5"/>
-      <c r="H85" t="s">
+      <c r="B85" s="4">
+        <v>60</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="E85" s="3"/>
+      <c r="H85" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="35">
         <v>2150</v>
       </c>
-      <c r="J85" t="s">
-        <v>171</v>
-      </c>
-      <c r="K85" s="24">
+      <c r="J85" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K85" s="20">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="34" t="s">
+      <c r="A86" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="48">
-        <v>60</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="B86" s="4">
+        <v>60</v>
+      </c>
+      <c r="H86" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="35">
         <v>1550</v>
       </c>
-      <c r="J86" t="s">
-        <v>171</v>
-      </c>
-      <c r="K86" s="24">
+      <c r="J86" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K86" s="20">
         <v>0.247</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="48">
-        <v>60</v>
-      </c>
-      <c r="C87" s="24"/>
+      <c r="B87" s="4">
+        <v>60</v>
+      </c>
+      <c r="C87" s="20"/>
       <c r="E87" s="3"/>
-      <c r="H87" t="s">
+      <c r="H87" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="35">
         <v>2.9</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K87" s="24">
+      <c r="K87" s="20">
         <v>6.36</v>
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B88" s="3">
         <v>30</v>
       </c>
-      <c r="C88" s="24"/>
+      <c r="C88" s="20"/>
       <c r="E88" s="3"/>
-      <c r="H88" t="s">
+      <c r="H88" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="35">
         <v>470</v>
       </c>
-      <c r="J88" t="s">
-        <v>171</v>
-      </c>
-      <c r="K88" s="24">
+      <c r="J88" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K88" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="4"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="3">
         <v>30</v>
       </c>
-      <c r="C89" s="24"/>
+      <c r="C89" s="20"/>
       <c r="E89" s="3"/>
-      <c r="H89" t="s">
+      <c r="H89" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I89" s="1">
-        <v>60</v>
-      </c>
-      <c r="J89" t="s">
-        <v>171</v>
-      </c>
-      <c r="K89" s="24">
+      <c r="I89" s="35">
+        <v>60</v>
+      </c>
+      <c r="J89" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K89" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="30">
-      <c r="A90" s="34" t="s">
+    <row r="90" spans="1:12">
+      <c r="A90" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B90" s="3">
         <v>30</v>
       </c>
-      <c r="C90" s="24"/>
+      <c r="C90" s="20"/>
       <c r="E90" s="3"/>
-      <c r="H90" t="s">
+      <c r="H90" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="35">
         <v>470</v>
       </c>
-      <c r="J90" t="s">
-        <v>171</v>
-      </c>
-      <c r="K90" s="24">
+      <c r="J90" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K90" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
@@ -3785,2346 +3762,2345 @@
       <c r="B91" s="3">
         <v>30</v>
       </c>
-      <c r="C91" s="24"/>
+      <c r="C91" s="20"/>
       <c r="E91" s="3"/>
-      <c r="H91" t="s">
+      <c r="H91" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I91" s="1">
-        <v>60</v>
-      </c>
-      <c r="J91" t="s">
-        <v>171</v>
-      </c>
-      <c r="K91" s="24">
+      <c r="I91" s="35">
+        <v>60</v>
+      </c>
+      <c r="J91" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K91" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="34" t="s">
+      <c r="A92" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B92" s="48">
-        <v>60</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="B92" s="4">
+        <v>60</v>
+      </c>
+      <c r="H92" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="35">
         <v>900</v>
       </c>
-      <c r="J92" t="s">
-        <v>171</v>
-      </c>
-      <c r="K92" s="24">
+      <c r="J92" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K92" s="20">
         <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B93" s="48">
-        <v>60</v>
-      </c>
-      <c r="C93" s="24"/>
+      <c r="B93" s="4">
+        <v>60</v>
+      </c>
+      <c r="C93" s="20"/>
       <c r="E93" s="3"/>
-      <c r="H93" s="38" t="s">
+      <c r="H93" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="I93" s="39">
+      <c r="I93" s="35">
         <v>63.3</v>
       </c>
-      <c r="J93" s="38" t="s">
+      <c r="J93" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K93" s="41">
+      <c r="K93" s="20">
         <v>14.1</v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="48">
-        <v>60</v>
-      </c>
-      <c r="C94" s="24"/>
+      <c r="B94" s="4">
+        <v>60</v>
+      </c>
+      <c r="C94" s="20"/>
       <c r="E94" s="3"/>
-      <c r="H94" t="s">
+      <c r="H94" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="35">
         <v>685</v>
       </c>
-      <c r="J94" t="s">
-        <v>171</v>
-      </c>
-      <c r="K94" s="24">
+      <c r="J94" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K94" s="20">
         <v>1.04</v>
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="26"/>
-      <c r="E95" s="5"/>
-      <c r="K95" s="24"/>
-    </row>
-    <row r="96" spans="1:12" ht="30">
-      <c r="A96" s="4" t="s">
+      <c r="B95" s="3"/>
+      <c r="C95" s="20"/>
+      <c r="E95" s="3"/>
+      <c r="K95" s="20"/>
+    </row>
+    <row r="96" spans="1:12" ht="29">
+      <c r="A96" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="48">
-        <v>60</v>
-      </c>
-      <c r="C96" s="24"/>
+      <c r="B96" s="4">
+        <v>60</v>
+      </c>
+      <c r="C96" s="20"/>
       <c r="E96" s="3"/>
-      <c r="H96" t="s">
+      <c r="H96" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="J96" t="s">
-        <v>171</v>
-      </c>
-      <c r="K96" s="24">
+      <c r="J96" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K96" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="48">
-        <v>60</v>
-      </c>
-      <c r="C97" s="24"/>
+      <c r="B97" s="4">
+        <v>60</v>
+      </c>
+      <c r="C97" s="20"/>
       <c r="E97" s="3"/>
-      <c r="H97" t="s">
+      <c r="H97" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="J97" t="s">
-        <v>171</v>
-      </c>
-      <c r="K97" s="24">
+      <c r="J97" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K97" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B98" s="3"/>
-      <c r="C98" s="24"/>
+      <c r="C98" s="20"/>
       <c r="E98" s="3"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="1:12" ht="30">
-      <c r="A99" s="4" t="s">
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B99" s="48">
-        <v>60</v>
-      </c>
-      <c r="C99" s="24"/>
+      <c r="B99" s="4">
+        <v>60</v>
+      </c>
+      <c r="C99" s="20"/>
       <c r="E99" s="3"/>
-      <c r="H99" t="s">
+      <c r="H99" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="J99" t="s">
-        <v>171</v>
-      </c>
-      <c r="K99" s="24">
+      <c r="J99" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K99" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="34" t="s">
+      <c r="A100" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K100" s="24">
+      <c r="K100" s="20">
         <v>97.7</v>
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B101" s="3"/>
-      <c r="C101" s="24"/>
+      <c r="C101" s="20"/>
       <c r="E101" s="3"/>
-      <c r="K101" s="24"/>
+      <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="48">
-        <v>60</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="B102" s="4">
+        <v>60</v>
+      </c>
+      <c r="H102" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="35">
         <v>1000</v>
       </c>
-      <c r="J102" t="s">
-        <v>171</v>
-      </c>
-      <c r="K102" s="24">
+      <c r="J102" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K102" s="20">
         <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="49" t="s">
+      <c r="A103" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="B103" s="48">
-        <v>60</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="B103" s="4">
+        <v>60</v>
+      </c>
+      <c r="H103" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="35">
         <f>40.5/0.015</f>
         <v>2700</v>
       </c>
-      <c r="J103" t="s">
-        <v>171</v>
-      </c>
-      <c r="K103" s="24">
+      <c r="J103" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K103" s="20">
         <f>16.2/40.5</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="L103" s="32" t="s">
+      <c r="L103" s="22" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B104" s="2">
-        <v>30</v>
-      </c>
-      <c r="C104" s="23">
+      <c r="A104" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" s="4">
+        <v>30</v>
+      </c>
+      <c r="C104" s="21">
         <v>940</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="35">
         <v>920</v>
       </c>
-      <c r="J104" t="s">
-        <v>171</v>
-      </c>
-      <c r="K104" s="24">
+      <c r="J104" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K104" s="20">
         <v>3.0895000000000001</v>
       </c>
-      <c r="L104" s="32" t="s">
+      <c r="L104" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B105" s="2">
-        <v>30</v>
-      </c>
-      <c r="C105" s="23">
+      <c r="B105" s="4">
+        <v>30</v>
+      </c>
+      <c r="C105" s="21">
         <v>940</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="35">
         <v>920</v>
       </c>
-      <c r="J105" t="s">
-        <v>171</v>
-      </c>
-      <c r="K105" s="24">
+      <c r="J105" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K105" s="20">
         <v>3.0895000000000001</v>
       </c>
-      <c r="L105" s="32" t="s">
+      <c r="L105" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="34" t="s">
+      <c r="A106" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="2">
-        <v>30</v>
-      </c>
-      <c r="C106" s="23">
+      <c r="B106" s="4">
+        <v>30</v>
+      </c>
+      <c r="C106" s="21">
         <v>940</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="35">
         <v>920</v>
       </c>
-      <c r="J106" t="s">
-        <v>171</v>
-      </c>
-      <c r="K106" s="24">
+      <c r="J106" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K106" s="20">
         <v>3.0895000000000001</v>
       </c>
-      <c r="L106" s="32" t="s">
+      <c r="L106" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="34" t="s">
+      <c r="A107" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="48">
-        <v>60</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="B107" s="4">
+        <v>60</v>
+      </c>
+      <c r="H107" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="35">
         <v>605</v>
       </c>
-      <c r="J107" t="s">
-        <v>171</v>
-      </c>
-      <c r="K107" s="24">
+      <c r="J107" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K107" s="20">
         <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="24" t="s">
         <v>152</v>
       </c>
       <c r="B108" s="3"/>
-      <c r="C108" s="24"/>
+      <c r="C108" s="20"/>
       <c r="E108" s="3"/>
-      <c r="K108" s="24"/>
+      <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="24" t="s">
         <v>128</v>
       </c>
       <c r="B109" s="3"/>
-      <c r="C109" s="24"/>
+      <c r="C109" s="20"/>
       <c r="E109" s="3"/>
-      <c r="K109" s="24"/>
+      <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B110" s="48">
-        <v>60</v>
-      </c>
-      <c r="C110" s="24"/>
+      <c r="B110" s="4">
+        <v>60</v>
+      </c>
+      <c r="C110" s="20"/>
       <c r="E110" s="3"/>
-      <c r="H110" t="s">
+      <c r="H110" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="35">
         <v>40</v>
       </c>
-      <c r="J110" t="s">
-        <v>171</v>
-      </c>
-      <c r="K110" s="24">
+      <c r="J110" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K110" s="20">
         <v>6.23</v>
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B111" s="48">
-        <v>60</v>
-      </c>
-      <c r="C111" s="24"/>
+      <c r="B111" s="4">
+        <v>60</v>
+      </c>
+      <c r="C111" s="20"/>
       <c r="E111" s="3"/>
-      <c r="H111" t="s">
+      <c r="H111" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="35">
         <v>910</v>
       </c>
-      <c r="J111" t="s">
-        <v>171</v>
-      </c>
-      <c r="K111" s="24">
+      <c r="J111" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K111" s="20">
         <v>5.43</v>
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B112" s="3">
         <v>30</v>
       </c>
-      <c r="C112" s="24">
+      <c r="C112" s="20">
         <v>30</v>
       </c>
       <c r="E112" s="3"/>
-      <c r="H112" t="s">
+      <c r="H112" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="I112" s="1">
-        <v>30</v>
-      </c>
-      <c r="J112" t="s">
-        <v>171</v>
-      </c>
-      <c r="K112" s="24">
+      <c r="I112" s="35">
+        <v>30</v>
+      </c>
+      <c r="J112" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K112" s="20">
         <v>5.32</v>
       </c>
-      <c r="L112" s="32" t="s">
+      <c r="L112" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B113" s="3">
         <v>30</v>
       </c>
-      <c r="C113" s="24">
+      <c r="C113" s="20">
         <v>30</v>
       </c>
       <c r="E113" s="3"/>
-      <c r="H113" t="s">
+      <c r="H113" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="I113" s="1">
-        <v>30</v>
-      </c>
-      <c r="J113" t="s">
-        <v>171</v>
-      </c>
-      <c r="K113" s="24">
+      <c r="I113" s="35">
+        <v>30</v>
+      </c>
+      <c r="J113" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K113" s="20">
         <v>5.32</v>
       </c>
-      <c r="L113" s="32" t="s">
+      <c r="L113" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B114" s="2">
-        <v>60</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="B114" s="4">
+        <v>60</v>
+      </c>
+      <c r="H114" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="35">
         <v>2150</v>
       </c>
-      <c r="J114" t="s">
-        <v>171</v>
-      </c>
-      <c r="K114" s="24">
+      <c r="J114" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K114" s="20">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B115" s="48">
-        <v>60</v>
-      </c>
-      <c r="C115" s="24"/>
+      <c r="B115" s="4">
+        <v>60</v>
+      </c>
+      <c r="C115" s="20"/>
       <c r="E115" s="3"/>
-      <c r="H115" t="s">
+      <c r="H115" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="35">
         <v>920</v>
       </c>
-      <c r="J115" t="s">
-        <v>171</v>
-      </c>
-      <c r="K115" s="24">
+      <c r="J115" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K115" s="20">
         <v>3.0895000000000001</v>
       </c>
-      <c r="L115" s="32" t="s">
+      <c r="L115" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B116" s="48">
-        <v>60</v>
-      </c>
-      <c r="C116" s="24"/>
+      <c r="B116" s="4">
+        <v>60</v>
+      </c>
+      <c r="C116" s="20"/>
       <c r="E116" s="3"/>
-      <c r="H116" t="s">
+      <c r="H116" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="35">
         <v>920</v>
       </c>
-      <c r="J116" t="s">
-        <v>171</v>
-      </c>
-      <c r="K116" s="24">
+      <c r="J116" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K116" s="20">
         <v>3.0895000000000001</v>
       </c>
-      <c r="L116" s="32" t="s">
+      <c r="L116" s="22" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="34" t="s">
+      <c r="A117" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B117" s="48">
-        <v>60</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="B117" s="4">
+        <v>60</v>
+      </c>
+      <c r="H117" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="35">
         <f>8.25/0.075</f>
         <v>110</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="K117" s="24">
+      <c r="K117" s="20">
         <f>27.5/8.5</f>
         <v>3.2352941176470589</v>
       </c>
-      <c r="L117" s="32" t="s">
+      <c r="L117" s="22" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="24" t="s">
         <v>129</v>
       </c>
       <c r="B118" s="3"/>
-      <c r="C118" s="24"/>
+      <c r="C118" s="20"/>
       <c r="E118" s="3"/>
-      <c r="K118" s="24"/>
+      <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B119" s="48">
-        <v>60</v>
-      </c>
-      <c r="C119" s="24"/>
+      <c r="B119" s="4">
+        <v>60</v>
+      </c>
+      <c r="C119" s="20"/>
       <c r="E119" s="3"/>
-      <c r="H119" t="s">
+      <c r="H119" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="I119" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="J119" t="s">
-        <v>171</v>
-      </c>
-      <c r="K119" s="24">
+      <c r="J119" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K119" s="20">
         <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="35" t="s">
+      <c r="A120" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B120" s="48">
-        <v>60</v>
-      </c>
-      <c r="C120" s="26"/>
-      <c r="E120" s="5"/>
-      <c r="H120" t="s">
+      <c r="B120" s="4">
+        <v>60</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="E120" s="3"/>
+      <c r="H120" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="35">
         <v>2500</v>
       </c>
-      <c r="J120" t="s">
-        <v>171</v>
-      </c>
-      <c r="K120" s="24">
+      <c r="J120" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K120" s="20">
         <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B121" s="3">
         <v>30</v>
       </c>
-      <c r="C121" s="24"/>
+      <c r="C121" s="20"/>
       <c r="E121" s="3"/>
-      <c r="H121" t="s">
+      <c r="H121" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="35">
         <v>100</v>
       </c>
-      <c r="J121" t="s">
-        <v>171</v>
-      </c>
-      <c r="K121" s="24">
+      <c r="J121" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K121" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B122" s="3">
         <v>30</v>
       </c>
-      <c r="C122" s="24"/>
+      <c r="C122" s="20"/>
       <c r="E122" s="3"/>
-      <c r="H122" t="s">
+      <c r="H122" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I122" s="1">
-        <v>60</v>
-      </c>
-      <c r="J122" t="s">
-        <v>171</v>
-      </c>
-      <c r="K122" s="24">
+      <c r="I122" s="35">
+        <v>60</v>
+      </c>
+      <c r="J122" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K122" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="24" t="s">
         <v>155</v>
       </c>
       <c r="B123" s="3">
         <v>30</v>
       </c>
-      <c r="C123" s="24"/>
+      <c r="C123" s="20"/>
       <c r="E123" s="3"/>
-      <c r="H123" t="s">
+      <c r="H123" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="I123" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="J123" t="s">
-        <v>171</v>
-      </c>
-      <c r="K123" s="24">
+      <c r="J123" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K123" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B124" s="5">
-        <v>30</v>
-      </c>
-      <c r="C124" s="24"/>
+      <c r="B124" s="3">
+        <v>30</v>
+      </c>
+      <c r="C124" s="20"/>
       <c r="E124" s="3"/>
-      <c r="H124" t="s">
+      <c r="H124" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I124" s="1">
+      <c r="I124" s="35">
         <v>160</v>
       </c>
-      <c r="J124" t="s">
-        <v>171</v>
-      </c>
-      <c r="K124" s="24">
+      <c r="J124" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K124" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B125" s="5">
-        <v>30</v>
-      </c>
-      <c r="C125" s="24"/>
+      <c r="B125" s="3">
+        <v>30</v>
+      </c>
+      <c r="C125" s="20"/>
       <c r="E125" s="3"/>
-      <c r="H125" t="s">
+      <c r="H125" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="I125" s="1">
-        <v>60</v>
-      </c>
-      <c r="J125" t="s">
-        <v>171</v>
-      </c>
-      <c r="K125" s="24">
+      <c r="I125" s="35">
+        <v>60</v>
+      </c>
+      <c r="J125" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K125" s="20">
         <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="24" t="s">
         <v>146</v>
       </c>
       <c r="B126" s="3">
         <v>30</v>
       </c>
-      <c r="C126" s="24"/>
+      <c r="C126" s="20"/>
       <c r="E126" s="3"/>
-      <c r="H126" t="s">
+      <c r="H126" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="35">
         <v>2000</v>
       </c>
-      <c r="J126" t="s">
-        <v>171</v>
-      </c>
-      <c r="K126" s="24">
+      <c r="J126" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K126" s="20">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="34" t="s">
+      <c r="A127" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B127" s="2">
-        <v>30</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="B127" s="4">
+        <v>30</v>
+      </c>
+      <c r="H127" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="35">
         <v>2000</v>
       </c>
-      <c r="J127" t="s">
-        <v>171</v>
-      </c>
-      <c r="K127" s="24">
+      <c r="J127" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K127" s="20">
         <v>1.4E-2</v>
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B128" s="5">
-        <v>60</v>
-      </c>
-      <c r="C128" s="24"/>
+      <c r="B128" s="3">
+        <v>60</v>
+      </c>
+      <c r="C128" s="20"/>
       <c r="E128" s="3"/>
-      <c r="H128" t="s">
+      <c r="H128" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="35">
         <v>1400</v>
       </c>
-      <c r="J128" t="s">
-        <v>171</v>
-      </c>
-      <c r="K128" s="24">
+      <c r="J128" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K128" s="20">
         <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B129" s="5">
-        <v>60</v>
-      </c>
-      <c r="C129" s="24"/>
+      <c r="B129" s="3">
+        <v>60</v>
+      </c>
+      <c r="C129" s="20"/>
       <c r="E129" s="3"/>
-      <c r="H129" t="s">
+      <c r="H129" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="35">
         <v>1400</v>
       </c>
-      <c r="J129" t="s">
-        <v>171</v>
-      </c>
-      <c r="K129" s="24">
+      <c r="J129" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K129" s="20">
         <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="34" t="s">
+      <c r="A130" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B130" s="2">
-        <v>30</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="B130" s="4">
+        <v>30</v>
+      </c>
+      <c r="H130" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="I130" s="1">
+      <c r="I130" s="35">
         <v>675</v>
       </c>
-      <c r="J130" t="s">
-        <v>171</v>
-      </c>
-      <c r="K130" s="24">
+      <c r="J130" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K130" s="20">
         <v>0.126</v>
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B131" s="2">
-        <v>30</v>
-      </c>
-      <c r="C131" s="23">
-        <v>30</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="B131" s="4">
+        <v>30</v>
+      </c>
+      <c r="C131" s="21">
+        <v>30</v>
+      </c>
+      <c r="H131" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="35">
         <v>485</v>
       </c>
-      <c r="J131" t="s">
-        <v>171</v>
-      </c>
-      <c r="K131" s="24">
+      <c r="J131" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K131" s="20">
         <v>0.125</v>
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B132" s="2">
-        <v>30</v>
-      </c>
-      <c r="C132" s="23">
-        <v>30</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="B132" s="4">
+        <v>30</v>
+      </c>
+      <c r="C132" s="21">
+        <v>30</v>
+      </c>
+      <c r="H132" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="35">
         <v>485</v>
       </c>
-      <c r="J132" t="s">
-        <v>171</v>
-      </c>
-      <c r="K132" s="24">
+      <c r="J132" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K132" s="20">
         <v>0.125</v>
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="2">
-        <v>30</v>
-      </c>
-      <c r="C133" s="23">
-        <v>30</v>
-      </c>
-      <c r="H133" t="s">
+      <c r="B133" s="4">
+        <v>30</v>
+      </c>
+      <c r="C133" s="21">
+        <v>30</v>
+      </c>
+      <c r="H133" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="35">
         <v>485</v>
       </c>
-      <c r="J133" t="s">
-        <v>171</v>
-      </c>
-      <c r="K133" s="24">
+      <c r="J133" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K133" s="20">
         <v>0.125</v>
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B134" s="2">
-        <v>30</v>
-      </c>
-      <c r="C134" s="23">
-        <v>30</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="B134" s="4">
+        <v>30</v>
+      </c>
+      <c r="C134" s="21">
+        <v>30</v>
+      </c>
+      <c r="H134" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="35">
         <v>485</v>
       </c>
-      <c r="J134" t="s">
-        <v>171</v>
-      </c>
-      <c r="K134" s="24">
+      <c r="J134" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K134" s="20">
         <v>0.125</v>
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="34" t="s">
+      <c r="A135" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B135" s="48">
-        <v>60</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="B135" s="4">
+        <v>60</v>
+      </c>
+      <c r="H135" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="35">
         <v>7850</v>
       </c>
-      <c r="J135" t="s">
-        <v>171</v>
-      </c>
-      <c r="K135" s="24">
+      <c r="J135" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K135" s="20">
         <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="48">
-        <v>60</v>
-      </c>
-      <c r="C136" s="24"/>
+      <c r="B136" s="4">
+        <v>60</v>
+      </c>
+      <c r="C136" s="20"/>
       <c r="E136" s="3"/>
-      <c r="H136" t="s">
+      <c r="H136" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="I136" s="1">
+      <c r="I136" s="35">
         <v>7850</v>
       </c>
-      <c r="J136" t="s">
-        <v>171</v>
-      </c>
-      <c r="K136" s="24">
+      <c r="J136" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K136" s="20">
         <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="34" t="s">
+      <c r="A137" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B137" s="48">
-        <v>60</v>
-      </c>
-      <c r="H137" t="s">
+      <c r="B137" s="4">
+        <v>60</v>
+      </c>
+      <c r="H137" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="35">
         <v>1550</v>
       </c>
-      <c r="J137" t="s">
-        <v>171</v>
-      </c>
-      <c r="K137" s="24">
+      <c r="J137" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K137" s="20">
         <v>0.247</v>
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="34" t="s">
+      <c r="A138" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="K138" s="24">
+      <c r="K138" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="34" t="s">
+      <c r="A139" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="K139" s="24"/>
-    </row>
-    <row r="140" spans="1:11" ht="30">
-      <c r="A140" s="4" t="s">
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" ht="29">
+      <c r="A140" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B140" s="3"/>
-      <c r="C140" s="24"/>
+      <c r="C140" s="20"/>
       <c r="E140" s="3"/>
-      <c r="K140" s="24"/>
+      <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="24" t="s">
         <v>157</v>
       </c>
       <c r="B141" s="3"/>
-      <c r="C141" s="24"/>
+      <c r="C141" s="20"/>
       <c r="E141" s="3"/>
-      <c r="K141" s="24"/>
-    </row>
-    <row r="142" spans="1:11" ht="15.75">
-      <c r="A142" s="36" t="s">
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.5">
+      <c r="A142" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B142" s="2">
-        <v>30</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="B142" s="4">
+        <v>30</v>
+      </c>
+      <c r="H142" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I142" s="1">
+      <c r="I142" s="35">
         <v>470</v>
       </c>
-      <c r="J142" t="s">
-        <v>171</v>
-      </c>
-      <c r="K142" s="24">
+      <c r="J142" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K142" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="34" t="s">
+      <c r="A143" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B143" s="2">
-        <v>30</v>
-      </c>
-      <c r="H143" t="s">
+      <c r="B143" s="4">
+        <v>30</v>
+      </c>
+      <c r="H143" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I143" s="1">
+      <c r="I143" s="35">
         <v>470</v>
       </c>
-      <c r="J143" t="s">
-        <v>171</v>
-      </c>
-      <c r="K143" s="24">
+      <c r="J143" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K143" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B144" s="2">
-        <v>30</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="B144" s="4">
+        <v>30</v>
+      </c>
+      <c r="H144" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I144" s="1">
+      <c r="I144" s="35">
         <v>470</v>
       </c>
-      <c r="J144" t="s">
-        <v>171</v>
-      </c>
-      <c r="K144" s="24">
+      <c r="J144" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K144" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="30">
-      <c r="A145" s="34" t="s">
+    <row r="145" spans="1:11" ht="29">
+      <c r="A145" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B145" s="2">
-        <v>30</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="B145" s="4">
+        <v>30</v>
+      </c>
+      <c r="H145" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I145" s="1">
+      <c r="I145" s="35">
         <v>470</v>
       </c>
-      <c r="J145" t="s">
-        <v>171</v>
-      </c>
-      <c r="K145" s="24">
+      <c r="J145" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K145" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="30">
-      <c r="A146" s="34" t="s">
+    <row r="146" spans="1:11">
+      <c r="A146" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B146" s="2">
-        <v>30</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="B146" s="4">
+        <v>30</v>
+      </c>
+      <c r="H146" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I146" s="1">
+      <c r="I146" s="35">
         <v>470</v>
       </c>
-      <c r="J146" t="s">
-        <v>171</v>
-      </c>
-      <c r="K146" s="24">
+      <c r="J146" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K146" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B147" s="2">
-        <v>30</v>
-      </c>
-      <c r="H147" t="s">
+      <c r="B147" s="4">
+        <v>30</v>
+      </c>
+      <c r="H147" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I147" s="1">
+      <c r="I147" s="35">
         <v>470</v>
       </c>
-      <c r="J147" t="s">
-        <v>171</v>
-      </c>
-      <c r="K147" s="24">
+      <c r="J147" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K147" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B148" s="2">
-        <v>30</v>
-      </c>
-      <c r="H148" t="s">
+      <c r="B148" s="4">
+        <v>30</v>
+      </c>
+      <c r="H148" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I148" s="1">
+      <c r="I148" s="35">
         <v>470</v>
       </c>
-      <c r="J148" t="s">
-        <v>171</v>
-      </c>
-      <c r="K148" s="24">
+      <c r="J148" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K148" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B149" s="2">
-        <v>30</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="B149" s="4">
+        <v>30</v>
+      </c>
+      <c r="H149" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I149" s="1">
+      <c r="I149" s="35">
         <v>470</v>
       </c>
-      <c r="J149" t="s">
-        <v>171</v>
-      </c>
-      <c r="K149" s="24">
+      <c r="J149" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K149" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B150" s="2">
-        <v>30</v>
-      </c>
-      <c r="H150" t="s">
+      <c r="B150" s="4">
+        <v>30</v>
+      </c>
+      <c r="H150" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I150" s="1">
+      <c r="I150" s="35">
         <v>470</v>
       </c>
-      <c r="J150" t="s">
-        <v>171</v>
-      </c>
-      <c r="K150" s="24">
+      <c r="J150" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K150" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="34" t="s">
+      <c r="A151" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B151" s="2">
-        <v>30</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="B151" s="4">
+        <v>30</v>
+      </c>
+      <c r="H151" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I151" s="1">
+      <c r="I151" s="35">
         <v>470</v>
       </c>
-      <c r="J151" t="s">
-        <v>171</v>
-      </c>
-      <c r="K151" s="24">
+      <c r="J151" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K151" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="30">
-      <c r="A152" s="34" t="s">
+    <row r="152" spans="1:11" ht="29">
+      <c r="A152" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B152" s="2">
-        <v>30</v>
-      </c>
-      <c r="H152" t="s">
+      <c r="B152" s="4">
+        <v>30</v>
+      </c>
+      <c r="H152" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I152" s="1">
+      <c r="I152" s="35">
         <v>470</v>
       </c>
-      <c r="J152" t="s">
-        <v>171</v>
-      </c>
-      <c r="K152" s="24">
+      <c r="J152" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K152" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="34" t="s">
+      <c r="A153" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B153" s="2">
-        <v>30</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="B153" s="4">
+        <v>30</v>
+      </c>
+      <c r="H153" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I153" s="1">
+      <c r="I153" s="35">
         <v>470</v>
       </c>
-      <c r="J153" t="s">
-        <v>171</v>
-      </c>
-      <c r="K153" s="24">
+      <c r="J153" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K153" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="34" t="s">
+      <c r="A154" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B154" s="2">
-        <v>30</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="B154" s="4">
+        <v>30</v>
+      </c>
+      <c r="H154" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I154" s="1">
+      <c r="I154" s="35">
         <v>470</v>
       </c>
-      <c r="J154" t="s">
-        <v>171</v>
-      </c>
-      <c r="K154" s="24">
+      <c r="J154" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K154" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="34" t="s">
+      <c r="A155" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B155" s="2">
-        <v>30</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="B155" s="4">
+        <v>30</v>
+      </c>
+      <c r="H155" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I155" s="1">
+      <c r="I155" s="35">
         <v>470</v>
       </c>
-      <c r="J155" t="s">
-        <v>171</v>
-      </c>
-      <c r="K155" s="24">
+      <c r="J155" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K155" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="30">
-      <c r="A156" s="34" t="s">
+    <row r="156" spans="1:11">
+      <c r="A156" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B156" s="2">
-        <v>30</v>
-      </c>
-      <c r="H156" t="s">
+      <c r="B156" s="4">
+        <v>30</v>
+      </c>
+      <c r="H156" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I156" s="1">
+      <c r="I156" s="35">
         <v>470</v>
       </c>
-      <c r="J156" t="s">
-        <v>171</v>
-      </c>
-      <c r="K156" s="24">
+      <c r="J156" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K156" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="34" t="s">
+      <c r="A157" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B157" s="2">
-        <v>30</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="B157" s="4">
+        <v>30</v>
+      </c>
+      <c r="H157" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I157" s="1">
+      <c r="I157" s="35">
         <v>470</v>
       </c>
-      <c r="J157" t="s">
-        <v>171</v>
-      </c>
-      <c r="K157" s="24">
+      <c r="J157" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K157" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="30">
-      <c r="A158" s="34" t="s">
+    <row r="158" spans="1:11" ht="29">
+      <c r="A158" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B158" s="2">
-        <v>30</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="B158" s="4">
+        <v>30</v>
+      </c>
+      <c r="H158" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I158" s="1">
+      <c r="I158" s="35">
         <v>470</v>
       </c>
-      <c r="J158" t="s">
-        <v>171</v>
-      </c>
-      <c r="K158" s="24">
+      <c r="J158" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K158" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="34" t="s">
+      <c r="A159" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="2">
-        <v>30</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="B159" s="4">
+        <v>30</v>
+      </c>
+      <c r="H159" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I159" s="1">
+      <c r="I159" s="35">
         <v>470</v>
       </c>
-      <c r="J159" t="s">
-        <v>171</v>
-      </c>
-      <c r="K159" s="24">
+      <c r="J159" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K159" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="34" t="s">
+      <c r="A160" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B160" s="2">
-        <v>30</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="B160" s="4">
+        <v>30</v>
+      </c>
+      <c r="H160" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I160" s="1">
+      <c r="I160" s="35">
         <v>470</v>
       </c>
-      <c r="J160" t="s">
-        <v>171</v>
-      </c>
-      <c r="K160" s="24">
+      <c r="J160" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K160" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:21">
-      <c r="A161" s="34" t="s">
+      <c r="A161" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B161" s="2">
-        <v>30</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="B161" s="4">
+        <v>30</v>
+      </c>
+      <c r="H161" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I161" s="1">
+      <c r="I161" s="35">
         <v>470</v>
       </c>
-      <c r="J161" t="s">
-        <v>171</v>
-      </c>
-      <c r="K161" s="24">
+      <c r="J161" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K161" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:21">
-      <c r="A162" s="34" t="s">
+      <c r="A162" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B162" s="2">
-        <v>30</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="B162" s="4">
+        <v>30</v>
+      </c>
+      <c r="H162" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I162" s="1">
+      <c r="I162" s="35">
         <v>470</v>
       </c>
-      <c r="J162" t="s">
-        <v>171</v>
-      </c>
-      <c r="K162" s="24">
+      <c r="J162" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K162" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:21">
-      <c r="A163" s="34" t="s">
+      <c r="A163" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B163" s="2">
-        <v>30</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="B163" s="4">
+        <v>30</v>
+      </c>
+      <c r="H163" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I163" s="1">
+      <c r="I163" s="35">
         <v>470</v>
       </c>
-      <c r="J163" t="s">
-        <v>171</v>
-      </c>
-      <c r="K163" s="24">
+      <c r="J163" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K163" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="30">
-      <c r="A164" s="4" t="s">
+    <row r="164" spans="1:21" ht="29">
+      <c r="A164" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B164" s="2">
-        <v>30</v>
-      </c>
-      <c r="C164" s="24"/>
+      <c r="B164" s="4">
+        <v>30</v>
+      </c>
+      <c r="C164" s="20"/>
       <c r="E164" s="3"/>
-      <c r="H164" t="s">
+      <c r="H164" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I164" s="1">
+      <c r="I164" s="35">
         <v>470</v>
       </c>
-      <c r="J164" t="s">
-        <v>171</v>
-      </c>
-      <c r="K164" s="24">
+      <c r="J164" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K164" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="30">
-      <c r="A165" s="4" t="s">
+    <row r="165" spans="1:21">
+      <c r="A165" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B165" s="2">
-        <v>30</v>
-      </c>
-      <c r="C165" s="24"/>
+      <c r="B165" s="4">
+        <v>30</v>
+      </c>
+      <c r="C165" s="20"/>
       <c r="E165" s="3"/>
-      <c r="H165" t="s">
+      <c r="H165" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I165" s="1">
+      <c r="I165" s="35">
         <v>470</v>
       </c>
-      <c r="J165" t="s">
-        <v>171</v>
-      </c>
-      <c r="K165" s="24">
+      <c r="J165" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K165" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="30">
-      <c r="A166" s="34" t="s">
+    <row r="166" spans="1:21" ht="29">
+      <c r="A166" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B166" s="2">
-        <v>30</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="B166" s="4">
+        <v>30</v>
+      </c>
+      <c r="H166" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I166" s="1">
+      <c r="I166" s="35">
         <v>470</v>
       </c>
-      <c r="J166" t="s">
-        <v>171</v>
-      </c>
-      <c r="K166" s="24">
+      <c r="J166" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K166" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="30">
-      <c r="A167" s="4" t="s">
+    <row r="167" spans="1:21" ht="29">
+      <c r="A167" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B167" s="2">
-        <v>30</v>
-      </c>
-      <c r="C167" s="24"/>
+      <c r="B167" s="4">
+        <v>30</v>
+      </c>
+      <c r="C167" s="20"/>
       <c r="E167" s="3"/>
-      <c r="H167" t="s">
+      <c r="H167" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I167" s="1">
+      <c r="I167" s="35">
         <v>470</v>
       </c>
-      <c r="J167" t="s">
-        <v>171</v>
-      </c>
-      <c r="K167" s="24">
+      <c r="J167" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K167" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="30">
-      <c r="A168" s="34" t="s">
+    <row r="168" spans="1:21" ht="29">
+      <c r="A168" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B168" s="2">
-        <v>30</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="B168" s="4">
+        <v>30</v>
+      </c>
+      <c r="H168" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I168" s="1">
+      <c r="I168" s="35">
         <v>470</v>
       </c>
-      <c r="J168" t="s">
-        <v>171</v>
-      </c>
-      <c r="K168" s="24">
+      <c r="J168" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K168" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="30">
-      <c r="A169" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B169" s="2">
-        <v>30</v>
-      </c>
-      <c r="H169" t="s">
+    <row r="169" spans="1:21" ht="29">
+      <c r="A169" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" s="4">
+        <v>30</v>
+      </c>
+      <c r="H169" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I169" s="1">
+      <c r="I169" s="35">
         <v>470</v>
       </c>
-      <c r="J169" t="s">
-        <v>171</v>
-      </c>
-      <c r="K169" s="24">
+      <c r="J169" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K169" s="20">
         <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:21">
-      <c r="A170" s="34" t="s">
+      <c r="A170" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B170" s="2">
-        <v>30</v>
-      </c>
-      <c r="C170" s="23">
+      <c r="B170" s="4">
+        <v>30</v>
+      </c>
+      <c r="C170" s="21">
         <v>940</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="I170" s="1">
+      <c r="I170" s="35">
         <v>920</v>
       </c>
-      <c r="J170" t="s">
-        <v>171</v>
-      </c>
-      <c r="K170" s="24">
+      <c r="J170" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K170" s="20">
         <v>3.0895000000000001</v>
       </c>
-      <c r="L170" s="32" t="s">
+      <c r="L170" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="N170" s="42"/>
-      <c r="Q170" s="42"/>
-      <c r="R170" s="42"/>
-      <c r="S170" s="42"/>
-      <c r="T170" s="44"/>
-      <c r="U170" s="43"/>
+      <c r="N170" s="26"/>
+      <c r="Q170" s="26"/>
+      <c r="R170" s="26"/>
+      <c r="S170" s="26"/>
+      <c r="T170" s="26"/>
+      <c r="U170" s="41"/>
     </row>
     <row r="171" spans="1:21">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B171" s="2">
-        <v>30</v>
-      </c>
-      <c r="C171" s="24"/>
+      <c r="B171" s="4">
+        <v>30</v>
+      </c>
+      <c r="C171" s="20"/>
       <c r="E171" s="3"/>
-      <c r="K171" s="24"/>
-      <c r="N171" s="42"/>
-      <c r="Q171" s="43"/>
-    </row>
-    <row r="172" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A172" s="4" t="s">
+      <c r="K171" s="20"/>
+      <c r="N171" s="26"/>
+      <c r="Q171" s="41"/>
+    </row>
+    <row r="172" spans="1:21" ht="15" thickBot="1">
+      <c r="A172" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B172" s="2">
-        <v>30</v>
-      </c>
-      <c r="C172" s="24"/>
+      <c r="B172" s="4">
+        <v>30</v>
+      </c>
+      <c r="C172" s="20"/>
       <c r="E172" s="3"/>
-      <c r="K172" s="24"/>
-    </row>
-    <row r="173" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A173" s="4" t="s">
+      <c r="K172" s="20"/>
+    </row>
+    <row r="173" spans="1:21" ht="15" thickBot="1">
+      <c r="A173" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B173" s="2">
-        <v>30</v>
-      </c>
-      <c r="C173" s="24"/>
+      <c r="B173" s="4">
+        <v>30</v>
+      </c>
+      <c r="C173" s="20"/>
       <c r="E173" s="3"/>
-      <c r="H173" s="46" t="s">
+      <c r="H173" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="I173" s="46">
+      <c r="I173" s="42">
         <v>400</v>
       </c>
-      <c r="J173" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="K173" s="47">
+      <c r="J173" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K173" s="43">
         <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="174" spans="1:21">
-      <c r="A174" s="42" t="s">
+      <c r="A174" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="B174" s="2">
-        <v>30</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="B174" s="4">
+        <v>30</v>
+      </c>
+      <c r="H174" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="I174" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J174" t="s">
+      <c r="J174" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K174" s="23">
+      <c r="K174" s="21">
         <v>77.599999999999994</v>
       </c>
     </row>
     <row r="175" spans="1:21">
-      <c r="A175" s="42" t="s">
+      <c r="A175" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="B175" s="2">
-        <v>30</v>
-      </c>
-      <c r="H175" t="s">
+      <c r="B175" s="4">
+        <v>30</v>
+      </c>
+      <c r="H175" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="I175" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J175" t="s">
+      <c r="J175" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K175" s="23">
+      <c r="K175" s="21">
         <v>77.599999999999994</v>
       </c>
     </row>
     <row r="176" spans="1:21">
-      <c r="A176" s="42" t="s">
+      <c r="A176" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B176" s="2">
-        <v>30</v>
-      </c>
-      <c r="H176" t="s">
+      <c r="B176" s="4">
+        <v>30</v>
+      </c>
+      <c r="H176" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="I176" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J176" t="s">
+      <c r="J176" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K176" s="23">
+      <c r="K176" s="21">
         <v>77.599999999999994</v>
       </c>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="42" t="s">
+      <c r="A177" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B177" s="2">
-        <v>30</v>
-      </c>
-      <c r="H177" t="s">
+      <c r="B177" s="4">
+        <v>30</v>
+      </c>
+      <c r="H177" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="I177" s="1" t="s">
+      <c r="I177" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J177" t="s">
+      <c r="J177" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K177" s="23">
+      <c r="K177" s="21">
         <v>97.7</v>
       </c>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="56" t="s">
+      <c r="A178" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B178" s="2">
-        <v>30</v>
-      </c>
-      <c r="C178" s="23">
+      <c r="B178" s="4">
+        <v>30</v>
+      </c>
+      <c r="C178" s="21">
         <v>83.4</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H178" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="I178" s="1">
+      <c r="I178" s="35">
         <v>83.4</v>
       </c>
-      <c r="J178" t="s">
+      <c r="J178" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="K178" s="23">
+      <c r="K178" s="21">
         <v>0.13719999999999999</v>
       </c>
-      <c r="L178" t="s">
+      <c r="L178" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="56"/>
-      <c r="B179" s="2">
-        <v>30</v>
-      </c>
-      <c r="H179" t="s">
+      <c r="A179" s="44"/>
+      <c r="B179" s="4">
+        <v>30</v>
+      </c>
+      <c r="H179" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="I179" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J179" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K179" s="24">
+      <c r="K179" s="20">
         <v>58.9</v>
       </c>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="56" t="s">
+      <c r="A180" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="B180" s="2">
-        <v>30</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="B180" s="4">
+        <v>30</v>
+      </c>
+      <c r="H180" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="I180" s="1">
+      <c r="I180" s="35">
         <v>83.4</v>
       </c>
-      <c r="J180" t="s">
+      <c r="J180" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="K180" s="24">
+      <c r="K180" s="20">
         <v>0.13719999999999999</v>
       </c>
-      <c r="L180" t="s">
+      <c r="L180" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="56"/>
-      <c r="B181" s="2">
-        <v>30</v>
-      </c>
-      <c r="H181" t="s">
+      <c r="A181" s="44"/>
+      <c r="B181" s="4">
+        <v>30</v>
+      </c>
+      <c r="H181" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="I181" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J181" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K181" s="25">
+      <c r="K181" s="33">
         <v>36.54</v>
       </c>
     </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="42" t="s">
+      <c r="A182" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B182" s="2">
-        <v>30</v>
-      </c>
-      <c r="H182" t="s">
+      <c r="B182" s="4">
+        <v>30</v>
+      </c>
+      <c r="H182" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="I182" s="1">
+      <c r="I182" s="35">
         <v>83.4</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J182" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="K182" s="24">
+      <c r="K182" s="20">
         <v>0.13719999999999999</v>
       </c>
-      <c r="L182" t="s">
+      <c r="L182" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" t="s">
+      <c r="A183" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B183" s="2">
-        <v>30</v>
-      </c>
-      <c r="K183" s="24"/>
+      <c r="B183" s="4">
+        <v>30</v>
+      </c>
+      <c r="K183" s="20"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="56" t="s">
+      <c r="A184" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="B184" s="2">
-        <v>30</v>
-      </c>
-      <c r="H184" t="s">
+      <c r="B184" s="4">
+        <v>30</v>
+      </c>
+      <c r="H184" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="I184" s="1">
+      <c r="I184" s="35">
         <v>83.4</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J184" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="K184" s="24">
+      <c r="K184" s="20">
         <v>0.13719999999999999</v>
       </c>
-      <c r="L184" t="s">
+      <c r="L184" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="56"/>
-      <c r="B185" s="2">
-        <v>30</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="A185" s="44"/>
+      <c r="B185" s="4">
+        <v>30</v>
+      </c>
+      <c r="H185" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="I185" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J185" t="s">
+      <c r="J185" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K185" s="24">
+      <c r="K185" s="20">
         <v>66.8</v>
       </c>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="56" t="s">
+      <c r="A186" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="B186" s="7">
-        <v>30</v>
-      </c>
-      <c r="H186" t="s">
+      <c r="B186" s="4">
+        <v>30</v>
+      </c>
+      <c r="H186" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="I186" s="1">
+      <c r="I186" s="35">
         <v>83.4</v>
       </c>
-      <c r="J186" t="s">
+      <c r="J186" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="K186" s="24">
+      <c r="K186" s="20">
         <v>0.13719999999999999</v>
       </c>
-      <c r="L186" t="s">
+      <c r="L186" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="56"/>
-      <c r="B187" s="7">
-        <v>30</v>
-      </c>
-      <c r="H187" t="s">
+      <c r="A187" s="44"/>
+      <c r="B187" s="4">
+        <v>30</v>
+      </c>
+      <c r="H187" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="I187" s="1" t="s">
+      <c r="I187" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J187" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K187" s="24">
+      <c r="K187" s="20">
         <v>43.7</v>
       </c>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" t="s">
+      <c r="A188" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="B188" s="7">
-        <v>30</v>
-      </c>
-      <c r="H188" t="s">
+      <c r="B188" s="4">
+        <v>30</v>
+      </c>
+      <c r="H188" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="I188" s="1" t="s">
+      <c r="I188" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J188" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="K188" s="24">
+      <c r="K188" s="20">
         <v>285</v>
       </c>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" t="s">
+      <c r="A189" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="B189" s="7"/>
-      <c r="H189" t="s">
+      <c r="H189" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J189" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="K189" s="24">
+      <c r="K189" s="20">
         <v>4.4990000000000002E-2</v>
       </c>
-      <c r="L189" t="s">
+      <c r="L189" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="M189" s="1"/>
-      <c r="O189" s="23"/>
-    </row>
-    <row r="190" spans="1:15" ht="30">
-      <c r="A190" s="50" t="s">
+      <c r="M189" s="35"/>
+      <c r="O189" s="21"/>
+    </row>
+    <row r="190" spans="1:15" ht="29">
+      <c r="A190" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="H190" s="50" t="s">
+      <c r="H190" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J190" t="s">
+      <c r="J190" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K190" s="24">
+      <c r="K190" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="45">
-      <c r="A191" s="50" t="s">
+    <row r="191" spans="1:15" ht="43.5">
+      <c r="A191" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="H191" s="50" t="s">
+      <c r="H191" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J191" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K191" s="24">
+      <c r="K191" s="20">
         <v>1.85E-4</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="45">
-      <c r="A192" s="53" t="s">
+    <row r="192" spans="1:15" ht="43.5">
+      <c r="A192" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="H192" s="50" t="s">
+      <c r="H192" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="J192" t="s">
+      <c r="J192" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K192" s="24">
+      <c r="K192" s="20">
         <v>1.85E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="30">
-      <c r="A193" s="50" t="s">
+    <row r="193" spans="1:11" ht="29">
+      <c r="A193" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="H193" s="50" t="s">
+      <c r="H193" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J193" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K193" s="24">
+      <c r="K193" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="30">
-      <c r="A194" s="50" t="s">
+    <row r="194" spans="1:11" ht="29">
+      <c r="A194" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="H194" s="50" t="s">
+      <c r="H194" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J194" t="s">
+      <c r="J194" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K194" s="24">
+      <c r="K194" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="30">
-      <c r="A195" s="50" t="s">
+    <row r="195" spans="1:11" ht="29">
+      <c r="A195" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="H195" s="50" t="s">
+      <c r="H195" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J195" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K195" s="24">
+      <c r="K195" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="30">
-      <c r="A196" s="50" t="s">
+    <row r="196" spans="1:11" ht="29">
+      <c r="A196" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="H196" s="52" t="s">
+      <c r="H196" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="K196" s="23">
+      <c r="K196" s="21">
         <v>1.3365E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="30">
-      <c r="A197" s="50" t="s">
+    <row r="197" spans="1:11" ht="29">
+      <c r="A197" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="H197" s="50" t="s">
+      <c r="H197" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="K197" s="23">
+      <c r="K197" s="21">
         <v>7.0099999999999996E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="30">
-      <c r="A198" s="50" t="s">
+    <row r="198" spans="1:11" ht="29">
+      <c r="A198" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="H198" s="50" t="s">
+      <c r="H198" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J198" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K198" s="23">
+      <c r="K198" s="21">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="30">
-      <c r="A199" s="51" t="s">
+    <row r="199" spans="1:11" ht="29">
+      <c r="A199" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="H199" s="50" t="s">
+      <c r="H199" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J199" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K199" s="23">
+      <c r="K199" s="21">
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="30">
-      <c r="A200" s="50" t="s">
+    <row r="200" spans="1:11" ht="29">
+      <c r="A200" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="H200" s="50" t="s">
+      <c r="H200" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="J200" t="s">
+      <c r="J200" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K200" s="23">
+      <c r="K200" s="21">
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="45">
-      <c r="A201" s="50" t="s">
+    <row r="201" spans="1:11" ht="43.5">
+      <c r="A201" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="H201" s="50" t="s">
+      <c r="H201" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="J201" t="s">
+      <c r="J201" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K201" s="23">
+      <c r="K201" s="21">
         <v>1.85E-4</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="30">
-      <c r="A202" s="50" t="s">
+    <row r="202" spans="1:11" ht="29">
+      <c r="A202" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="H202" s="50" t="s">
+      <c r="H202" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J202" t="s">
+      <c r="J202" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K202" s="23">
+      <c r="K202" s="21">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="30">
-      <c r="A203" s="50" t="s">
+    <row r="203" spans="1:11" ht="29">
+      <c r="A203" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="H203" s="50" t="s">
+      <c r="H203" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J203" t="s">
+      <c r="J203" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K203" s="23">
+      <c r="K203" s="21">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="34" t="s">
+      <c r="A204" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="H204" s="45" t="s">
+      <c r="H204" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="K204" s="23">
+      <c r="K204" s="21">
         <v>7.1700000000000002E-3</v>
       </c>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="34" t="s">
+      <c r="A205" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H205" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="K205" s="23">
+      <c r="K205" s="21">
         <v>0.11509999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="30">
-      <c r="A206" s="34" t="s">
+    <row r="206" spans="1:11" ht="29">
+      <c r="A206" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="H206" s="50" t="s">
+      <c r="H206" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J206" t="s">
+      <c r="J206" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K206" s="24">
+      <c r="K206" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="30">
-      <c r="A207" s="34" t="s">
+    <row r="207" spans="1:11" ht="29">
+      <c r="A207" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="H207" s="52" t="s">
+      <c r="H207" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="K207" s="23">
+      <c r="K207" s="21">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="30">
-      <c r="A208" s="34" t="s">
+    <row r="208" spans="1:11" ht="29">
+      <c r="A208" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="H208" s="50" t="s">
+      <c r="H208" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J208" t="s">
+      <c r="J208" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K208" s="24">
+      <c r="K208" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="30">
-      <c r="A209" s="34" t="s">
+    <row r="209" spans="1:11" ht="29">
+      <c r="A209" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="H209" s="50" t="s">
+      <c r="H209" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J209" t="s">
+      <c r="J209" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K209" s="24">
+      <c r="K209" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="30">
-      <c r="A210" s="34" t="s">
+    <row r="210" spans="1:11" ht="29">
+      <c r="A210" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H210" s="50" t="s">
+      <c r="H210" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J210" t="s">
+      <c r="J210" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K210" s="24">
+      <c r="K210" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="30">
-      <c r="A211" s="34" t="s">
+    <row r="211" spans="1:11" ht="29">
+      <c r="A211" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="H211" s="52" t="s">
+      <c r="H211" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="K211" s="23">
+      <c r="K211" s="21">
         <v>1.3365E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="30">
-      <c r="A212" s="34" t="s">
+    <row r="212" spans="1:11" ht="29">
+      <c r="A212" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="H212" s="50" t="s">
+      <c r="H212" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="K212" s="23">
+      <c r="K212" s="21">
         <v>7.0099999999999996E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="30">
-      <c r="A213" s="34" t="s">
+    <row r="213" spans="1:11" ht="29">
+      <c r="A213" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="H213" s="50" t="s">
+      <c r="H213" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J213" t="s">
+      <c r="J213" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K213" s="24">
+      <c r="K213" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="30">
-      <c r="A214" s="34" t="s">
+    <row r="214" spans="1:11" ht="29">
+      <c r="A214" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="H214" s="50" t="s">
+      <c r="H214" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="J214" t="s">
+      <c r="J214" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K214" s="23">
+      <c r="K214" s="21">
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="30">
-      <c r="A215" s="60" t="s">
+    <row r="215" spans="1:11" ht="29">
+      <c r="A215" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="H215" s="50" t="s">
+      <c r="H215" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="J215" t="s">
+      <c r="J215" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K215" s="23">
+      <c r="K215" s="21">
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="30">
-      <c r="A216" s="34" t="s">
+    <row r="216" spans="1:11" ht="29">
+      <c r="A216" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="H216" s="50" t="s">
+      <c r="H216" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="K216" s="23">
+      <c r="K216" s="21">
         <v>7.0099999999999996E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="30">
-      <c r="A217" s="34" t="s">
+    <row r="217" spans="1:11" ht="29">
+      <c r="A217" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="H217" s="50" t="s">
+      <c r="H217" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J217" t="s">
+      <c r="J217" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K217" s="24">
+      <c r="K217" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="30">
-      <c r="A218" s="34" t="s">
+    <row r="218" spans="1:11" ht="29">
+      <c r="A218" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="H218" s="50" t="s">
+      <c r="H218" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="J218" t="s">
+      <c r="J218" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="K218" s="24">
+      <c r="K218" s="20">
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
@@ -6133,16 +6109,16 @@
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A184:A185"/>
     <mergeCell ref="A186:A187"/>
     <mergeCell ref="A178:A179"/>
     <mergeCell ref="A180:A181"/>
     <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6154,69 +6130,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
+      <c r="A1" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5">
+      <c r="A2" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:9" ht="15.5">
+      <c r="A3" s="10" t="s">
         <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6225,10 +6201,10 @@
       <c r="C3" s="1">
         <v>0.223</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -6240,12 +6216,12 @@
       <c r="H3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" ht="15.5">
+      <c r="A4" s="10" t="s">
         <v>177</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -6254,10 +6230,10 @@
       <c r="C4" s="1">
         <v>0.41699999999999998</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -6269,12 +6245,12 @@
       <c r="H4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:9" ht="15.5">
+      <c r="A5" s="10" t="s">
         <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -6283,10 +6259,10 @@
       <c r="C5" s="1">
         <v>7.64</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -6298,12 +6274,12 @@
       <c r="H5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:9" ht="15.5">
+      <c r="A6" s="10" t="s">
         <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6312,10 +6288,10 @@
       <c r="C6" s="1">
         <v>14.5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -6327,12 +6303,12 @@
       <c r="H6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:9" ht="15.5">
+      <c r="A7" s="10" t="s">
         <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -6341,10 +6317,10 @@
       <c r="C7" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -6356,12 +6332,12 @@
       <c r="H7" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:9" ht="15.5">
+      <c r="A8" s="10" t="s">
         <v>187</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -6370,10 +6346,10 @@
       <c r="C8" s="1">
         <v>7.52</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -6385,12 +6361,12 @@
       <c r="H8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:9" ht="15.5">
+      <c r="A9" s="10" t="s">
         <v>190</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6399,10 +6375,10 @@
       <c r="C9" s="1">
         <v>1.17</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -6414,18 +6390,18 @@
       <c r="H9" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:9" ht="15.5">
+      <c r="A10" s="10"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -6437,12 +6413,12 @@
       <c r="H10" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:9" ht="15.5">
+      <c r="A11" s="10" t="s">
         <v>195</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6451,10 +6427,10 @@
       <c r="C11" s="1">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -6466,12 +6442,12 @@
       <c r="H11" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9" ht="15.5">
+      <c r="A12" s="10" t="s">
         <v>197</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -6480,10 +6456,10 @@
       <c r="C12" s="1">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -6495,18 +6471,18 @@
       <c r="H12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:9" ht="15.5">
+      <c r="A13" s="10"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -6518,12 +6494,12 @@
       <c r="H13" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:9" ht="15.5">
+      <c r="A14" s="10" t="s">
         <v>200</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -6532,10 +6508,10 @@
       <c r="C14" s="1">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -6547,12 +6523,12 @@
       <c r="H14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:9" ht="15.5">
+      <c r="A15" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -6561,10 +6537,10 @@
       <c r="C15" s="1">
         <v>0.25700000000000001</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -6576,12 +6552,12 @@
       <c r="H15" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:9" ht="15.5">
+      <c r="A16" s="10" t="s">
         <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -6590,10 +6566,10 @@
       <c r="C16" s="1">
         <v>1.17</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -6605,18 +6581,18 @@
       <c r="H16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:9" ht="15.5">
+      <c r="A17" s="10"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -6628,30 +6604,30 @@
       <c r="H17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
+    <row r="18" spans="1:9" ht="16" thickBot="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="17">
         <v>1</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="19" t="s">
         <v>176</v>
       </c>
     </row>
